--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fh986/Documents/Github/crowding-individual-difference/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenhu/Documents/GitHub/crowding-individual-difference/easyEyesSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715B23C-286D-F54A-8F4E-5AA7166D7BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C673C7A-81EC-4746-98ED-7464BFD13412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="500" windowWidth="27620" windowHeight="26360" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
+    <workbookView xWindow="9840" yWindow="760" windowWidth="27620" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,9 +536,6 @@
 Click on PROCEED to continue.</t>
   </si>
   <si>
-    <t>624cbcd4c9f2ebe61823d39a</t>
-  </si>
-  <si>
     <t>Anna Bruns, Helen Hu, Jonathan Winawer, Denis Pelli</t>
   </si>
   <si>
@@ -675,6 +672,9 @@
   </si>
   <si>
     <t>reading_Islands_block2</t>
+  </si>
+  <si>
+    <t>67506ef48ae0fbccdc9b0326</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -864,8 +864,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,9 +1202,9 @@
   <dimension ref="A1:X117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="Y25" sqref="Y25"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1227,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1370,8 +1369,8 @@
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>164</v>
+      <c r="B20" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -1479,19 +1478,19 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="D26" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>136</v>
@@ -1506,22 +1505,22 @@
         <v>136</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O26" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>137</v>
@@ -1542,10 +1541,10 @@
         <v>137</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -1704,64 +1703,64 @@
         <v>38</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="H30" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="H30" s="18" t="s">
+      <c r="J30" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="I30" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="K30" s="25" t="s">
+      <c r="L30" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="L30" s="26" t="s">
-        <v>171</v>
-      </c>
       <c r="M30" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="N30" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="N30" s="26" t="s">
+      <c r="O30" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="P30" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="P30" s="26" t="s">
+      <c r="Q30" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -3183,15 +3182,15 @@
       <c r="P58" s="24"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S58" s="1"/>
-      <c r="T58" s="34" t="s">
-        <v>197</v>
+      <c r="T58" t="s">
+        <v>196</v>
       </c>
       <c r="U58" s="1"/>
       <c r="V58" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
@@ -3216,15 +3215,15 @@
       <c r="P59" s="24"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S59" s="1"/>
-      <c r="T59" s="34" t="s">
-        <v>198</v>
+      <c r="T59" t="s">
+        <v>197</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
@@ -3249,15 +3248,15 @@
       <c r="P60" s="24"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S60" s="1"/>
-      <c r="T60" s="34" t="s">
-        <v>199</v>
+      <c r="T60" t="s">
+        <v>198</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
@@ -3282,15 +3281,15 @@
       <c r="P61" s="24"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S61" s="1"/>
-      <c r="T61" s="34" t="s">
-        <v>200</v>
+      <c r="T61" t="s">
+        <v>199</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -3315,15 +3314,15 @@
       <c r="P62" s="24"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S62" s="1"/>
-      <c r="T62" s="34" t="s">
-        <v>201</v>
+      <c r="T62" t="s">
+        <v>200</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
@@ -3347,15 +3346,15 @@
       <c r="O63" s="23"/>
       <c r="P63" s="24"/>
       <c r="Q63" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R63" s="1"/>
-      <c r="S63" s="34" t="s">
-        <v>195</v>
+      <c r="S63" t="s">
+        <v>194</v>
       </c>
       <c r="T63" s="1"/>
-      <c r="U63" s="34" t="s">
-        <v>203</v>
+      <c r="U63" t="s">
+        <v>202</v>
       </c>
       <c r="V63" s="1"/>
       <c r="W63" s="4" t="s">
@@ -3385,9 +3384,7 @@
       <c r="P64" s="24"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="S64" s="34"/>
       <c r="T64" s="1"/>
-      <c r="U64" s="34"/>
       <c r="V64" s="1"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
@@ -3412,9 +3409,7 @@
       <c r="P65" s="24"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-      <c r="S65" s="34"/>
       <c r="T65" s="1"/>
-      <c r="U65" s="34"/>
       <c r="V65" s="1"/>
       <c r="W65" s="4" t="b">
         <v>1</v>
@@ -3442,15 +3437,15 @@
       <c r="O66" s="23"/>
       <c r="P66" s="29"/>
       <c r="Q66" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R66" s="1"/>
-      <c r="S66" s="34" t="s">
-        <v>196</v>
+      <c r="S66" t="s">
+        <v>195</v>
       </c>
       <c r="T66" s="1"/>
-      <c r="U66" s="34" t="s">
-        <v>204</v>
+      <c r="U66" t="s">
+        <v>203</v>
       </c>
       <c r="V66" s="1"/>
       <c r="W66" s="4"/>
@@ -5271,7 +5266,7 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C108" s="7">
         <v>1.4</v>

--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenhu/Documents/GitHub/crowding-individual-difference/easyEyesSpreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenhu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C673C7A-81EC-4746-98ED-7464BFD13412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8FF4F0-B8E3-794E-9077-EC48433F4E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="760" windowWidth="27620" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
+    <workbookView xWindow="1200" yWindow="760" windowWidth="27620" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="212">
   <si>
     <t>_about</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Sloan.woff2</t>
   </si>
   <si>
-    <t>VerdanaRegular.woff2</t>
-  </si>
-  <si>
     <t>fontCharacterSet</t>
   </si>
   <si>
@@ -419,9 +416,6 @@
     <t>ratio</t>
   </si>
   <si>
-    <t>typographic</t>
-  </si>
-  <si>
     <t>spacingSymmetry</t>
   </si>
   <si>
@@ -521,160 +515,168 @@
     <t xml:space="preserve">Tests letter recognition and reading. Needs a computer with at least 6 cores. </t>
   </si>
   <si>
-    <t>Welcome!
-In this session, you will perform tasks on the computer.
+    <t>In this block, you will again need to keep your cursor at the center of a moving black cross until a letter appears. The letter will appear away from the cross. You must recognize it by typing it on the keyboard. In some trials, the letter might be very small. Try anyway.
+Click on PROCEED to continue.</t>
+  </si>
+  <si>
+    <t>In this block, you will need to keep the cursor at the center of a moving black cross until three letters appear, for example: Z R N. The letters will appear away from the cross. You must recognize the middle one by typing it on the keyboard. In some trials, the letters might be very small. Try anyway.
+Click on PROCEED to continue.</t>
+  </si>
+  <si>
+    <t>Anna Bruns, Helen Hu, Jonathan Winawer, Denis Pelli</t>
+  </si>
+  <si>
+    <t>acuity_L8_practice</t>
+  </si>
+  <si>
+    <t>acuity_R8_practice</t>
+  </si>
+  <si>
+    <t>vernier_L8_practice</t>
+  </si>
+  <si>
+    <t>vernier_R8_practice</t>
+  </si>
+  <si>
+    <t>crowding_L8_practice</t>
+  </si>
+  <si>
+    <t>crowding_R8_practice</t>
+  </si>
+  <si>
+    <t>acuity_L8_block2</t>
+  </si>
+  <si>
+    <t>acuity_R8_block2</t>
+  </si>
+  <si>
+    <t>vernier_L8_block2</t>
+  </si>
+  <si>
+    <t>vernier_R8_block2</t>
+  </si>
+  <si>
+    <t>rsvp_foveal_block2</t>
+  </si>
+  <si>
+    <t>Crowding, acuity, reading test-retest</t>
+  </si>
+  <si>
+    <t>blockShuffleGroups1</t>
+  </si>
+  <si>
+    <t>acuity</t>
+  </si>
+  <si>
+    <t>crowding</t>
+  </si>
+  <si>
+    <t>rsvp</t>
+  </si>
+  <si>
+    <t>crowding_L8_block3</t>
+  </si>
+  <si>
+    <t>crowding_R8_block3</t>
+  </si>
+  <si>
+    <t>crowding_L8_block4</t>
+  </si>
+  <si>
+    <t>crowding_R8_block4</t>
+  </si>
+  <si>
+    <t>reading_Colours_practice</t>
+  </si>
+  <si>
+    <t>Colours_1|Their visual perception of colours is well developed.|According to the text, what is true about birds?|Their visual perception of colours is well developed.|They can't distinguish between wasps and harmless flies.|Both male and female birds can have colourful feathers.|They are all attracted to bright colors.|They use camouflage as their primary defense.</t>
+  </si>
+  <si>
+    <t>Colours_2|To attract insects, which help them reproduce|What is the purpose of coloured flowers in plants?|To signal to other plants when it's time to bloom|To absorb more sunlight for photosynthesis|To attract insects, which help them reproduce|To warn predators that the plant is poisonous|To attract birds for pollination</t>
+  </si>
+  <si>
+    <t>Colours_3|To serve as a warning|What purpose do striking colors serve in some poisonous or unpleasant-tasting animals?|To blend in with their environment|To scare away predators by looking larger|To stand out from their surroundings|To serve as a warning|To attract mates</t>
+  </si>
+  <si>
+    <t>Colours_4|Harmless flies that do not have a stinger but imitate wasps.|Which example of a harmless animal that imitates a dangerous one was mentioned?|Flies with fake stingers that look like bees.|Harmless bees that look like wasps.|Harmless moths that imitate poisonous butterflies.|Harmless flies that do not have a stinger but imitate wasps.|Non-venomous snakes that resemble venomous ones.</t>
+  </si>
+  <si>
+    <t>Colours_5|They make themselves almost invisible, looking like the leaves, ground, or rocks on which they live.|According to the text, how do some animals protect themselves by using camouflage?|They make themselves blend in with their environment's colors by living in areas that match their coat or skin.|They make themselves almost invisible, looking like the leaves, ground, or rocks on which they live.|They disguise themselves as plants or inanimate objects.|They blend in with their environment by staying very still.|They change their color rapidly to match their surroundings.</t>
+  </si>
+  <si>
+    <t>Colours.txt</t>
+  </si>
+  <si>
+    <t>The colours of an animal or a plant are generally there for some purpose</t>
+  </si>
+  <si>
+    <t>Desert.txt</t>
+  </si>
+  <si>
+    <t>In areas where it is very hot and dry</t>
+  </si>
+  <si>
+    <t>Desert_1|A plant’s seeds stay buried, often for several years until it rains.|How do many plants survive in very hot and dry areas?|A plant’s seeds stay buried, often for several years until it rains.|The wind carries seeds to better conditions.|Seedlings sprout but stay buried until it rains.|They have roots that grow above ground to absorb nutrients from the air.|A plant’s roots can dry up but be rehydrated after it rains.</t>
+  </si>
+  <si>
+    <t>Desert_2|Desert plants grow very quickly and form flowers and seeds, which develop into the next generation|What is the growth pattern of many plants in the desert?|Desert plants grow slowly as a result of the lack of water and nutrients.|Desert plants grow very quickly and form flowers and seeds, which develop into the next generation|Desert plants grow outward rather than upward and are typically slow growing.|Desert plants grow quickly, stunting the growth of roots and making them less able to withstand wind and drought.|Desert plants grow quickly but typically stay low to the ground, as tall plants risk getting blown over.</t>
+  </si>
+  <si>
+    <t>Desert_3|They bury themselves in the ground and form a capsule which prevents them from drying out.|How do some frogs survive in the desert?|They limit their movement, stay in the shade, and only come out when it rains.|They can store water in their bodies for extended periods of time, and they stay in the shade underground.|They eat some of their offspring to sustain themselves when resources are scarce.|They bury themselves in the ground and form a capsule which prevents them from drying out.|They camouflage themselves in rocks and sand to avoid being spotted by predators.</t>
+  </si>
+  <si>
+    <t>Desert_4|They provide for their offspring.|What do desert frogs do when it rains?|They provide for their offspring.|They drink as much water as they can.|They come out in the open to rehydrate their bodies.|They lay eggs in puddles.|They dig small holes that fill up like pools.</t>
+  </si>
+  <si>
+    <t>Desert_5|Some have extensive roots that take in water from a large area or reach into the ground very far.|Which plant adaptation is mentioned in the text?|Some have shallow, widespread roots to maximize rainfall moisture absorption.|Some have thick, waxy leaves that help prevent water loss.|Some have extensive roots that take in water from a large area or reach into the ground very far.|Some grow leaves during the rainy season and shed them during the dry season.|Some have very lightweight seeds that can be easily carried and dispersed by the wind.</t>
+  </si>
+  <si>
+    <t>reading_Desert_block1</t>
+  </si>
+  <si>
+    <t>Islands.txt</t>
+  </si>
+  <si>
+    <t>The word island describes areas</t>
+  </si>
+  <si>
+    <t>Islands_1|When volcanoes rise from the floor of the sea or when the water level rises or falls|How can islands come into existence?|When tectonic plates collide and push land above sea level|When volcanoes rise from the floor of the sea or when the water level rises or falls|Only when underwater volcanoes erupt and form new land masses|Through the gradual erosion of coastal areas, separating land from the mainland|When ice sheets melt, exposing previously submerged land, the accumulation of sediment, or coral reefs</t>
+  </si>
+  <si>
+    <t>Islands_2|At the end of the last ice age|When did a number of islands come into existence?|During the last major volcanic eruption period|In the middle of the Pleistocene epoch|At the end of the last ice age|At the beginning of the last ice age|During the formation of the Earth's oceans</t>
+  </si>
+  <si>
+    <t>Islands_3|As the ice melted, the water ran into the sea, whose level rose so much that low-lying land was flooded.|What caused the creation of many islands at the end of the last ice age?|As the ice melted, the water ran into the sea, whose level rose so much that low-lying land was flooded.|The weight of the ice caused land to sink, allowing water to flood certain areas and create islands at the highest points of land.|As the ice melted, it carved out new valleys, creating isolated landmasses.|Rapid temperature changes caused volcanic eruptions, forming new islands.|Glaciers pushed sediment into the ocean, building up new landmasses.</t>
+  </si>
+  <si>
+    <t>Islands_4|They normally cannot leave and must adapt quickly to the new environment to survive.|What challenge(s) do animals and plants face once they reach a remote island?|They must evolve new physical features within a single generation to survive.|They have to adapt to the new environment but can easily return to their original habitat if needed.|They need to rapidly increase their population size to establish a viable colony.|They must immediately adapt and compete with the native species for resources.|They normally cannot leave and must adapt quickly to the new environment to survive.</t>
+  </si>
+  <si>
+    <t>Islands_5|They may become extinct when new animals arrive or humans start to interfere.|Why is there always a danger for living things native to islands?|They may face challenges competing with some introduced species that lack natural predators on the island.|They may become extinct when new animals arrive or humans start to interfere.|After struggling to quickly adapt, their specialized role in the ecosystem makes them vulnerable to the tiniest environmental changes.|Their inability to easily migrate to new habitats can be a disadvantage when conditions become unfavorable.|A lack of natural predators can lead to population growth of species, resulting in inadequate food supplies and extinction.</t>
+  </si>
+  <si>
+    <t>reading_Islands_block2</t>
+  </si>
+  <si>
+    <t>67506ef48ae0fbccdc9b0326</t>
+  </si>
+  <si>
+    <t>Roboto</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>thresholdAllowedTrialRatio</t>
+  </si>
+  <si>
+    <t>In this session, you will perform tasks on the computer.
 In each task, when you answer correctly, you will hear a beep. Click on the "BEEP" button to make sure the computer's audio is on.
 In this block, you must your cursor at the center of a moving black cross until a letter appears. The letter will appear away from the cross. You must recognize it by typing it on the keyboard. In some trials, the letter might be very small. Try anyway.
 Click on PROCEED to continue.</t>
   </si>
   <si>
-    <t>In this block, you will again need to keep your cursor at the center of a moving black cross until a letter appears. The letter will appear away from the cross. You must recognize it by typing it on the keyboard. In some trials, the letter might be very small. Try anyway.
-Click on PROCEED to continue.</t>
-  </si>
-  <si>
-    <t>In this block, you will need to keep the cursor at the center of a moving black cross until three letters appear, for example: Z R N. The letters will appear away from the cross. You must recognize the middle one by typing it on the keyboard. In some trials, the letters might be very small. Try anyway.
-Click on PROCEED to continue.</t>
-  </si>
-  <si>
-    <t>Anna Bruns, Helen Hu, Jonathan Winawer, Denis Pelli</t>
-  </si>
-  <si>
-    <t>acuity_L8_practice</t>
-  </si>
-  <si>
-    <t>acuity_R8_practice</t>
-  </si>
-  <si>
-    <t>vernier_L8_practice</t>
-  </si>
-  <si>
-    <t>vernier_R8_practice</t>
-  </si>
-  <si>
-    <t>crowding_L8_practice</t>
-  </si>
-  <si>
-    <t>crowding_R8_practice</t>
-  </si>
-  <si>
-    <t>acuity_L8_block2</t>
-  </si>
-  <si>
-    <t>acuity_R8_block2</t>
-  </si>
-  <si>
-    <t>vernier_L8_block2</t>
-  </si>
-  <si>
-    <t>vernier_R8_block2</t>
-  </si>
-  <si>
-    <t>rsvp_foveal_block2</t>
-  </si>
-  <si>
-    <t>Crowding, acuity, reading test-retest</t>
-  </si>
-  <si>
-    <t>thresholdAllowedRatio</t>
-  </si>
-  <si>
-    <t>blockShuffleGroups1</t>
-  </si>
-  <si>
-    <t>acuity</t>
-  </si>
-  <si>
-    <t>crowding</t>
-  </si>
-  <si>
-    <t>rsvp</t>
-  </si>
-  <si>
-    <t>crowding_L8_block3</t>
-  </si>
-  <si>
-    <t>crowding_R8_block3</t>
-  </si>
-  <si>
-    <t>crowding_L8_block4</t>
-  </si>
-  <si>
-    <t>crowding_R8_block4</t>
-  </si>
-  <si>
-    <t>reading_Colours_practice</t>
-  </si>
-  <si>
-    <t>Colours_1|Their visual perception of colours is well developed.|According to the text, what is true about birds?|Their visual perception of colours is well developed.|They can't distinguish between wasps and harmless flies.|Both male and female birds can have colourful feathers.|They are all attracted to bright colors.|They use camouflage as their primary defense.</t>
-  </si>
-  <si>
-    <t>Colours_2|To attract insects, which help them reproduce|What is the purpose of coloured flowers in plants?|To signal to other plants when it's time to bloom|To absorb more sunlight for photosynthesis|To attract insects, which help them reproduce|To warn predators that the plant is poisonous|To attract birds for pollination</t>
-  </si>
-  <si>
-    <t>Colours_3|To serve as a warning|What purpose do striking colors serve in some poisonous or unpleasant-tasting animals?|To blend in with their environment|To scare away predators by looking larger|To stand out from their surroundings|To serve as a warning|To attract mates</t>
-  </si>
-  <si>
-    <t>Colours_4|Harmless flies that do not have a stinger but imitate wasps.|Which example of a harmless animal that imitates a dangerous one was mentioned?|Flies with fake stingers that look like bees.|Harmless bees that look like wasps.|Harmless moths that imitate poisonous butterflies.|Harmless flies that do not have a stinger but imitate wasps.|Non-venomous snakes that resemble venomous ones.</t>
-  </si>
-  <si>
-    <t>Colours_5|They make themselves almost invisible, looking like the leaves, ground, or rocks on which they live.|According to the text, how do some animals protect themselves by using camouflage?|They make themselves blend in with their environment's colors by living in areas that match their coat or skin.|They make themselves almost invisible, looking like the leaves, ground, or rocks on which they live.|They disguise themselves as plants or inanimate objects.|They blend in with their environment by staying very still.|They change their color rapidly to match their surroundings.</t>
-  </si>
-  <si>
-    <t>Colours.txt</t>
-  </si>
-  <si>
-    <t>The colours of an animal or a plant are generally there for some purpose</t>
-  </si>
-  <si>
-    <t>Desert.txt</t>
-  </si>
-  <si>
-    <t>In areas where it is very hot and dry</t>
-  </si>
-  <si>
-    <t>Desert_1|A plant’s seeds stay buried, often for several years until it rains.|How do many plants survive in very hot and dry areas?|A plant’s seeds stay buried, often for several years until it rains.|The wind carries seeds to better conditions.|Seedlings sprout but stay buried until it rains.|They have roots that grow above ground to absorb nutrients from the air.|A plant’s roots can dry up but be rehydrated after it rains.</t>
-  </si>
-  <si>
-    <t>Desert_2|Desert plants grow very quickly and form flowers and seeds, which develop into the next generation|What is the growth pattern of many plants in the desert?|Desert plants grow slowly as a result of the lack of water and nutrients.|Desert plants grow very quickly and form flowers and seeds, which develop into the next generation|Desert plants grow outward rather than upward and are typically slow growing.|Desert plants grow quickly, stunting the growth of roots and making them less able to withstand wind and drought.|Desert plants grow quickly but typically stay low to the ground, as tall plants risk getting blown over.</t>
-  </si>
-  <si>
-    <t>Desert_3|They bury themselves in the ground and form a capsule which prevents them from drying out.|How do some frogs survive in the desert?|They limit their movement, stay in the shade, and only come out when it rains.|They can store water in their bodies for extended periods of time, and they stay in the shade underground.|They eat some of their offspring to sustain themselves when resources are scarce.|They bury themselves in the ground and form a capsule which prevents them from drying out.|They camouflage themselves in rocks and sand to avoid being spotted by predators.</t>
-  </si>
-  <si>
-    <t>Desert_4|They provide for their offspring.|What do desert frogs do when it rains?|They provide for their offspring.|They drink as much water as they can.|They come out in the open to rehydrate their bodies.|They lay eggs in puddles.|They dig small holes that fill up like pools.</t>
-  </si>
-  <si>
-    <t>Desert_5|Some have extensive roots that take in water from a large area or reach into the ground very far.|Which plant adaptation is mentioned in the text?|Some have shallow, widespread roots to maximize rainfall moisture absorption.|Some have thick, waxy leaves that help prevent water loss.|Some have extensive roots that take in water from a large area or reach into the ground very far.|Some grow leaves during the rainy season and shed them during the dry season.|Some have very lightweight seeds that can be easily carried and dispersed by the wind.</t>
-  </si>
-  <si>
-    <t>reading_Desert_block1</t>
-  </si>
-  <si>
-    <t>Islands.txt</t>
-  </si>
-  <si>
-    <t>The word island describes areas</t>
-  </si>
-  <si>
-    <t>Islands_1|When volcanoes rise from the floor of the sea or when the water level rises or falls|How can islands come into existence?|When tectonic plates collide and push land above sea level|When volcanoes rise from the floor of the sea or when the water level rises or falls|Only when underwater volcanoes erupt and form new land masses|Through the gradual erosion of coastal areas, separating land from the mainland|When ice sheets melt, exposing previously submerged land, the accumulation of sediment, or coral reefs</t>
-  </si>
-  <si>
-    <t>Islands_2|At the end of the last ice age|When did a number of islands come into existence?|During the last major volcanic eruption period|In the middle of the Pleistocene epoch|At the end of the last ice age|At the beginning of the last ice age|During the formation of the Earth's oceans</t>
-  </si>
-  <si>
-    <t>Islands_3|As the ice melted, the water ran into the sea, whose level rose so much that low-lying land was flooded.|What caused the creation of many islands at the end of the last ice age?|As the ice melted, the water ran into the sea, whose level rose so much that low-lying land was flooded.|The weight of the ice caused land to sink, allowing water to flood certain areas and create islands at the highest points of land.|As the ice melted, it carved out new valleys, creating isolated landmasses.|Rapid temperature changes caused volcanic eruptions, forming new islands.|Glaciers pushed sediment into the ocean, building up new landmasses.</t>
-  </si>
-  <si>
-    <t>Islands_4|They normally cannot leave and must adapt quickly to the new environment to survive.|What challenge(s) do animals and plants face once they reach a remote island?|They must evolve new physical features within a single generation to survive.|They have to adapt to the new environment but can easily return to their original habitat if needed.|They need to rapidly increase their population size to establish a viable colony.|They must immediately adapt and compete with the native species for resources.|They normally cannot leave and must adapt quickly to the new environment to survive.</t>
-  </si>
-  <si>
-    <t>Islands_5|They may become extinct when new animals arrive or humans start to interfere.|Why is there always a danger for living things native to islands?|They may face challenges competing with some introduced species that lack natural predators on the island.|They may become extinct when new animals arrive or humans start to interfere.|After struggling to quickly adapt, their specialized role in the ecosystem makes them vulnerable to the tiniest environmental changes.|Their inability to easily migrate to new habitats can be a disadvantage when conditions become unfavorable.|A lack of natural predators can lead to population growth of species, resulting in inadequate food supplies and extinction.</t>
-  </si>
-  <si>
-    <t>reading_Islands_block2</t>
-  </si>
-  <si>
-    <t>67506ef48ae0fbccdc9b0326</t>
+    <t>_saveCursorPositionBool</t>
   </si>
 </sst>
 </file>
@@ -1199,12 +1201,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F42C05-3A7A-B849-89F1-BA0E282F9675}">
-  <dimension ref="A1:X117"/>
+  <dimension ref="A1:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+      <selection pane="topRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1226,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1314,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1370,7 +1372,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -1399,222 +1401,165 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
         <v>2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <v>2</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>3</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="14">
         <v>3</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="13">
         <v>4</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J26" s="14">
         <v>4</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K26" s="21">
         <v>5</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L26" s="22">
         <v>5</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M26" s="21">
         <v>6</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N26" s="22">
         <v>6</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O26" s="21">
         <v>7</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P26" s="22">
         <v>7</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q26" s="2">
         <v>8</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R26" s="2">
         <v>9</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S26" s="2">
         <v>10</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T26" s="2">
         <v>11</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U26" s="2">
         <v>12</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V26" s="2">
         <v>13</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W26" s="3">
         <v>14</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X26" s="3">
         <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="M26" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="N26" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="O26" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="P26" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="X26" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V27" s="1"/>
-      <c r="W27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X27" s="4" t="b">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7" t="b">
         <v>1</v>
@@ -1658,11 +1603,17 @@
       <c r="P28" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="S28" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
+      <c r="U28" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="V28" s="1"/>
       <c r="W28" s="4" t="b">
         <v>1</v>
@@ -1673,200 +1624,200 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="C29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" s="24" t="b">
+        <v>1</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
+      <c r="W29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="I31" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="L31" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="V31" s="1"/>
+      <c r="W31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="L30" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="N30" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="O30" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="P30" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="T30" s="1"/>
-      <c r="U30" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="V30" s="1"/>
-      <c r="W30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="15">
-        <v>1</v>
-      </c>
-      <c r="H31" s="16">
-        <v>1</v>
-      </c>
-      <c r="I31" s="15">
-        <v>1</v>
-      </c>
-      <c r="J31" s="16">
-        <v>1</v>
-      </c>
-      <c r="K31" s="23">
-        <v>1</v>
-      </c>
-      <c r="L31" s="24">
-        <v>1</v>
-      </c>
-      <c r="M31" s="23">
-        <v>1</v>
-      </c>
-      <c r="N31" s="24">
-        <v>1</v>
-      </c>
-      <c r="O31" s="23">
-        <v>1</v>
-      </c>
-      <c r="P31" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="4">
-        <v>2</v>
-      </c>
-      <c r="X31" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D32" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E32" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F32" s="8">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G32" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H32" s="16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I32" s="15">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J32" s="16">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K32" s="23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L32" s="24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M32" s="23">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N32" s="24">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="O32" s="23">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="P32" s="24">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1875,287 +1826,319 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X32" s="4">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="N33" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="O33" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="P33" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C33" s="7">
+        <v>10</v>
+      </c>
+      <c r="D33" s="8">
+        <v>10</v>
+      </c>
+      <c r="E33" s="7">
+        <v>35</v>
+      </c>
+      <c r="F33" s="8">
+        <v>35</v>
+      </c>
+      <c r="G33" s="15">
+        <v>10</v>
+      </c>
+      <c r="H33" s="16">
+        <v>10</v>
+      </c>
+      <c r="I33" s="15">
+        <v>35</v>
+      </c>
+      <c r="J33" s="16">
+        <v>35</v>
+      </c>
+      <c r="K33" s="23">
+        <v>10</v>
+      </c>
+      <c r="L33" s="24">
+        <v>10</v>
+      </c>
+      <c r="M33" s="23">
+        <v>35</v>
+      </c>
+      <c r="N33" s="24">
+        <v>35</v>
+      </c>
+      <c r="O33" s="23">
+        <v>35</v>
+      </c>
+      <c r="P33" s="24">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="X33" s="4" t="s">
-        <v>44</v>
+      <c r="W33" s="4">
+        <v>5</v>
+      </c>
+      <c r="X33" s="4">
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>47</v>
+        <v>207</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>47</v>
+        <v>207</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O34" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="4" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="1">
-        <v>0.5</v>
+        <v>44</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="R35" s="1"/>
-      <c r="S35" s="1">
-        <v>0.5</v>
+      <c r="S35" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="T35" s="1"/>
-      <c r="U35" s="1">
-        <v>0.5</v>
+      <c r="U35" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="V35" s="1"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
+      <c r="W35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="M36" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="N36" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="P36" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="1">
+        <v>0.5</v>
       </c>
       <c r="R36" s="1"/>
-      <c r="S36" s="1" t="s">
-        <v>51</v>
+      <c r="S36" s="1">
+        <v>0.5</v>
       </c>
       <c r="T36" s="1"/>
-      <c r="U36" s="1" t="s">
-        <v>51</v>
+      <c r="U36" s="1">
+        <v>0.5</v>
       </c>
       <c r="V36" s="1"/>
-      <c r="W36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="X36" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>53</v>
+        <v>208</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
+      <c r="S37" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
+      <c r="U37" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="V37" s="1"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
+      <c r="W37" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
+      <c r="G38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
       <c r="M38" s="23"/>
@@ -2168,40 +2151,26 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="4">
-        <v>15</v>
-      </c>
-      <c r="X38" s="4">
-        <v>15</v>
-      </c>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>161</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="G39" s="15"/>
       <c r="H39" s="16"/>
       <c r="I39" s="15"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="23" t="s">
-        <v>163</v>
-      </c>
+      <c r="K39" s="23"/>
       <c r="L39" s="24"/>
-      <c r="M39" s="23" t="s">
-        <v>163</v>
-      </c>
+      <c r="M39" s="23"/>
       <c r="N39" s="24"/>
-      <c r="O39" s="23" t="s">
-        <v>163</v>
-      </c>
+      <c r="O39" s="23"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -2209,47 +2178,41 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
+      <c r="W39" s="4">
+        <v>15</v>
+      </c>
+      <c r="X39" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D40" s="8"/>
       <c r="E40" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F40" s="8"/>
       <c r="G40" s="15"/>
       <c r="H40" s="16"/>
       <c r="I40" s="15"/>
       <c r="J40" s="16"/>
       <c r="K40" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>155</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="L40" s="24"/>
       <c r="M40" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N40" s="24" t="s">
-        <v>155</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N40" s="24"/>
       <c r="O40" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="P40" s="24" t="s">
-        <v>155</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="P40" s="24"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -2261,41 +2224,41 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
       <c r="K41" s="23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2308,49 +2271,41 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>59</v>
+        <v>156</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>59</v>
+        <v>157</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="O42" s="24" t="s">
-        <v>59</v>
+        <v>157</v>
+      </c>
+      <c r="O42" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2363,49 +2318,49 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="D43" s="8">
-        <v>-0.25</v>
-      </c>
-      <c r="E43" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="F43" s="8">
-        <v>-0.25</v>
-      </c>
-      <c r="G43" s="15">
-        <v>-0.25</v>
-      </c>
-      <c r="H43" s="16">
-        <v>-0.25</v>
-      </c>
-      <c r="I43" s="15">
-        <v>-0.25</v>
-      </c>
-      <c r="J43" s="16">
-        <v>-0.25</v>
-      </c>
-      <c r="K43" s="23">
-        <v>-0.25</v>
-      </c>
-      <c r="L43" s="23">
-        <v>-0.25</v>
-      </c>
-      <c r="M43" s="23">
-        <v>-0.25</v>
-      </c>
-      <c r="N43" s="23">
-        <v>-0.25</v>
-      </c>
-      <c r="O43" s="23">
-        <v>-0.25</v>
-      </c>
-      <c r="P43" s="23">
-        <v>-0.25</v>
+        <v>57</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P43" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -2418,33 +2373,49 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O44" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P44" s="24" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="D44" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="E44" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="F44" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="G44" s="15">
+        <v>-0.25</v>
+      </c>
+      <c r="H44" s="16">
+        <v>-0.25</v>
+      </c>
+      <c r="I44" s="15">
+        <v>-0.25</v>
+      </c>
+      <c r="J44" s="16">
+        <v>-0.25</v>
+      </c>
+      <c r="K44" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="L44" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="M44" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="N44" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="O44" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="P44" s="23">
+        <v>-0.25</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -2452,75 +2423,79 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X44" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="8">
-        <v>2</v>
-      </c>
-      <c r="E45" s="7">
-        <v>2</v>
-      </c>
-      <c r="F45" s="8">
-        <v>2</v>
-      </c>
-      <c r="G45" s="15">
-        <v>2</v>
-      </c>
-      <c r="H45" s="16">
-        <v>2</v>
-      </c>
-      <c r="I45" s="15">
-        <v>2</v>
-      </c>
-      <c r="J45" s="16">
-        <v>2</v>
-      </c>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="24" t="b">
+        <v>0</v>
+      </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
+      <c r="W45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X45" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="8">
+        <v>2</v>
+      </c>
+      <c r="E46" s="7">
+        <v>2</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2</v>
+      </c>
+      <c r="G46" s="15">
+        <v>2</v>
+      </c>
+      <c r="H46" s="16">
+        <v>2</v>
+      </c>
+      <c r="I46" s="15">
+        <v>2</v>
+      </c>
+      <c r="J46" s="16">
+        <v>2</v>
       </c>
       <c r="K46" s="23"/>
       <c r="L46" s="24"/>
@@ -2539,16 +2514,24 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
+      <c r="G47" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="K47" s="23"/>
       <c r="L47" s="24"/>
       <c r="M47" s="23"/>
@@ -2561,184 +2544,156 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="X47" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M48" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N48" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O48" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P48" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X48" s="4" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="D49" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="E49" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G49" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="H49" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="I49" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="J49" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="K49" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="L49" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="M49" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="N49" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="O49" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="P49" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="C49" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N49" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P49" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X49" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J50" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L50" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M50" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="N50" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="O50" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="P50" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="J50" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="K50" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="L50" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="M50" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="N50" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="O50" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="P50" s="23">
+        <v>0.15</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2751,49 +2706,49 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D51" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G51" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H51" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I51" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J51" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K51" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L51" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="M51" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="N51" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="O51" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="P51" s="24">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M51" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N51" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="O51" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2806,49 +2761,49 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D52" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E52" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F52" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G52" s="15">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H52" s="16">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I52" s="15">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J52" s="16">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K52" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L52" s="24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M52" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N52" s="24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O52" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P52" s="24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2861,49 +2816,49 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53" s="7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D53" s="8">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E53" s="7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F53" s="8">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G53" s="15">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H53" s="16">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I53" s="15">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J53" s="16">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K53" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L53" s="24">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M53" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N53" s="24">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O53" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P53" s="24">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2911,58 +2866,54 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="4">
-        <v>1</v>
-      </c>
-      <c r="X53" s="4">
-        <v>1</v>
-      </c>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K54" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P54" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2971,116 +2922,84 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="D55" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="E55" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="F55" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="G55" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="H55" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="I55" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="J55" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="K55" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="L55" s="24">
-        <v>0.03</v>
-      </c>
-      <c r="M55" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="N55" s="24">
-        <v>0.03</v>
-      </c>
-      <c r="O55" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="P55" s="24">
-        <v>0.03</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="24"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="X55" s="4">
-        <v>0.03</v>
-      </c>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D56" s="8">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.05</v>
       </c>
       <c r="E56" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.05</v>
       </c>
       <c r="G56" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="H56" s="16">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="H56" s="15">
+        <v>0.05</v>
       </c>
       <c r="I56" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="J56" s="16">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="J56" s="15">
+        <v>0.05</v>
       </c>
       <c r="K56" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="L56" s="24">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="L56" s="23">
+        <v>0.05</v>
       </c>
       <c r="M56" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="N56" s="24">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="N56" s="23">
+        <v>0.05</v>
       </c>
       <c r="O56" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="P56" s="24">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="P56" s="23">
+        <v>0.05</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -3088,116 +3007,142 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
+      <c r="W56" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="X56" s="4">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57" s="7">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="D57" s="8">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="E57" s="7">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="F57" s="8">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="G57" s="15">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="H57" s="16">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="I57" s="15">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="J57" s="16">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="K57" s="23">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="L57" s="24">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="M57" s="23">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="N57" s="24">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="O57" s="23">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="P57" s="24">
-        <v>70</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>70</v>
-      </c>
-      <c r="R57" s="1">
-        <v>70</v>
-      </c>
-      <c r="S57" s="1">
-        <v>70</v>
-      </c>
-      <c r="T57" s="1">
-        <v>70</v>
-      </c>
-      <c r="U57" s="1">
-        <v>70</v>
-      </c>
-      <c r="V57" s="1">
-        <v>70</v>
-      </c>
-      <c r="W57" s="4">
-        <v>70</v>
-      </c>
-      <c r="X57" s="4">
-        <v>70</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="S58" s="1"/>
-      <c r="T58" t="s">
-        <v>196</v>
-      </c>
-      <c r="U58" s="1"/>
-      <c r="V58" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="C58" s="7">
+        <v>70</v>
+      </c>
+      <c r="D58" s="8">
+        <v>70</v>
+      </c>
+      <c r="E58" s="7">
+        <v>70</v>
+      </c>
+      <c r="F58" s="8">
+        <v>70</v>
+      </c>
+      <c r="G58" s="15">
+        <v>70</v>
+      </c>
+      <c r="H58" s="16">
+        <v>70</v>
+      </c>
+      <c r="I58" s="15">
+        <v>70</v>
+      </c>
+      <c r="J58" s="16">
+        <v>70</v>
+      </c>
+      <c r="K58" s="23">
+        <v>70</v>
+      </c>
+      <c r="L58" s="24">
+        <v>70</v>
+      </c>
+      <c r="M58" s="23">
+        <v>70</v>
+      </c>
+      <c r="N58" s="24">
+        <v>70</v>
+      </c>
+      <c r="O58" s="23">
+        <v>70</v>
+      </c>
+      <c r="P58" s="24">
+        <v>70</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>70</v>
+      </c>
+      <c r="R58" s="1">
+        <v>70</v>
+      </c>
+      <c r="S58" s="1">
+        <v>70</v>
+      </c>
+      <c r="T58" s="1">
+        <v>70</v>
+      </c>
+      <c r="U58" s="1">
+        <v>70</v>
+      </c>
+      <c r="V58" s="1">
+        <v>70</v>
+      </c>
+      <c r="W58" s="4">
+        <v>70</v>
+      </c>
+      <c r="X58" s="4">
+        <v>70</v>
+      </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -3215,22 +3160,22 @@
       <c r="P59" s="24"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="31" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="33" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
@@ -3248,22 +3193,22 @@
       <c r="P60" s="24"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="31" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="S60" s="1"/>
       <c r="T60" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="33" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
@@ -3281,22 +3226,22 @@
       <c r="P61" s="24"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="33" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
@@ -3314,22 +3259,22 @@
       <c r="P62" s="24"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="31" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="S62" s="1"/>
       <c r="T62" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="33" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
@@ -3345,28 +3290,24 @@
       <c r="N63" s="24"/>
       <c r="O63" s="23"/>
       <c r="P63" s="24"/>
-      <c r="Q63" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="R63" s="1"/>
-      <c r="S63" t="s">
-        <v>194</v>
-      </c>
-      <c r="T63" s="1"/>
-      <c r="U63" t="s">
-        <v>202</v>
-      </c>
-      <c r="V63" s="1"/>
-      <c r="W63" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="X63" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="S63" s="1"/>
+      <c r="T63" t="s">
+        <v>196</v>
+      </c>
+      <c r="U63" s="1"/>
+      <c r="V63" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -3382,16 +3323,28 @@
       <c r="N64" s="24"/>
       <c r="O64" s="23"/>
       <c r="P64" s="24"/>
-      <c r="Q64" s="1"/>
+      <c r="Q64" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="R64" s="1"/>
+      <c r="S64" t="s">
+        <v>190</v>
+      </c>
       <c r="T64" s="1"/>
+      <c r="U64" t="s">
+        <v>198</v>
+      </c>
       <c r="V64" s="1"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
+      <c r="W64" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="X64" s="4" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
@@ -3411,16 +3364,12 @@
       <c r="R65" s="1"/>
       <c r="T65" s="1"/>
       <c r="V65" s="1"/>
-      <c r="W65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X65" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -3435,25 +3384,21 @@
       <c r="M66" s="23"/>
       <c r="N66" s="24"/>
       <c r="O66" s="23"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="32" t="s">
-        <v>193</v>
-      </c>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" t="s">
-        <v>195</v>
-      </c>
       <c r="T66" s="1"/>
-      <c r="U66" t="s">
-        <v>203</v>
-      </c>
       <c r="V66" s="1"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
+      <c r="W66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X66" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
@@ -3468,17 +3413,17 @@
       <c r="M67" s="23"/>
       <c r="N67" s="24"/>
       <c r="O67" s="23"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="1">
-        <v>57</v>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="32" t="s">
+        <v>189</v>
       </c>
       <c r="R67" s="1"/>
-      <c r="S67" s="1">
-        <v>57</v>
+      <c r="S67" t="s">
+        <v>191</v>
       </c>
       <c r="T67" s="1"/>
-      <c r="U67" s="1">
-        <v>57</v>
+      <c r="U67" t="s">
+        <v>199</v>
       </c>
       <c r="V67" s="1"/>
       <c r="W67" s="4"/>
@@ -3486,7 +3431,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
@@ -3502,16 +3447,16 @@
       <c r="N68" s="24"/>
       <c r="O68" s="23"/>
       <c r="P68" s="24"/>
-      <c r="Q68" s="1" t="s">
-        <v>89</v>
+      <c r="Q68" s="1">
+        <v>57</v>
       </c>
       <c r="R68" s="1"/>
-      <c r="S68" s="1" t="s">
-        <v>89</v>
+      <c r="S68" s="1">
+        <v>57</v>
       </c>
       <c r="T68" s="1"/>
-      <c r="U68" s="1" t="s">
-        <v>89</v>
+      <c r="U68" s="1">
+        <v>57</v>
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="4"/>
@@ -3519,7 +3464,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="8"/>
@@ -3536,27 +3481,23 @@
       <c r="O69" s="23"/>
       <c r="P69" s="24"/>
       <c r="Q69" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V69" s="1"/>
-      <c r="W69" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="X69" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="8"/>
@@ -3572,24 +3513,28 @@
       <c r="N70" s="24"/>
       <c r="O70" s="23"/>
       <c r="P70" s="24"/>
-      <c r="Q70" s="1">
-        <v>1.2</v>
+      <c r="Q70" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="R70" s="1"/>
-      <c r="S70" s="1">
-        <v>1.2</v>
+      <c r="S70" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="T70" s="1"/>
-      <c r="U70" s="1">
-        <v>1.2</v>
+      <c r="U70" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="V70" s="1"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
+      <c r="W70" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="X70" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
@@ -3606,15 +3551,15 @@
       <c r="O71" s="23"/>
       <c r="P71" s="24"/>
       <c r="Q71" s="1">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="R71" s="1"/>
       <c r="S71" s="1">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="T71" s="1"/>
       <c r="U71" s="1">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="V71" s="1"/>
       <c r="W71" s="4"/>
@@ -3622,7 +3567,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
@@ -3639,15 +3584,15 @@
       <c r="O72" s="23"/>
       <c r="P72" s="24"/>
       <c r="Q72" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="4"/>
@@ -3655,7 +3600,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
@@ -3688,7 +3633,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
@@ -3705,15 +3650,15 @@
       <c r="O74" s="23"/>
       <c r="P74" s="24"/>
       <c r="Q74" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T74" s="1"/>
       <c r="U74" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V74" s="1"/>
       <c r="W74" s="4"/>
@@ -3721,7 +3666,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="8"/>
@@ -3737,28 +3682,24 @@
       <c r="N75" s="24"/>
       <c r="O75" s="23"/>
       <c r="P75" s="24"/>
-      <c r="Q75" s="1" t="s">
-        <v>98</v>
+      <c r="Q75" s="1">
+        <v>5</v>
       </c>
       <c r="R75" s="1"/>
-      <c r="S75" s="1" t="s">
-        <v>98</v>
+      <c r="S75" s="1">
+        <v>5</v>
       </c>
       <c r="T75" s="1"/>
-      <c r="U75" s="1" t="s">
-        <v>98</v>
+      <c r="U75" s="1">
+        <v>5</v>
       </c>
       <c r="V75" s="1"/>
-      <c r="W75" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X75" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
@@ -3774,28 +3715,28 @@
       <c r="N76" s="24"/>
       <c r="O76" s="23"/>
       <c r="P76" s="24"/>
-      <c r="Q76" s="1">
-        <v>0.3</v>
+      <c r="Q76" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="R76" s="1"/>
-      <c r="S76" s="1">
-        <v>0.3</v>
+      <c r="S76" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="T76" s="1"/>
-      <c r="U76" s="1">
-        <v>0.3</v>
+      <c r="U76" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="V76" s="1"/>
-      <c r="W76" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="X76" s="4">
-        <v>0.5</v>
+      <c r="W76" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X76" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
@@ -3811,107 +3752,79 @@
       <c r="N77" s="24"/>
       <c r="O77" s="23"/>
       <c r="P77" s="24"/>
-      <c r="Q77" s="1"/>
+      <c r="Q77" s="1">
+        <v>0.3</v>
+      </c>
       <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
+      <c r="S77" s="1">
+        <v>0.3</v>
+      </c>
       <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
+      <c r="U77" s="1">
+        <v>0.3</v>
+      </c>
       <c r="V77" s="1"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
+      <c r="W77" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="X77" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D78" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G78" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K78" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N78" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O78" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P78" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-      <c r="U78" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X78" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C79" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="23" t="b">
         <v>1</v>
@@ -3943,36 +3856,40 @@
         <v>1</v>
       </c>
       <c r="V79" s="1"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
+      <c r="W79" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X79" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C80" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="23" t="b">
         <v>1</v>
@@ -3992,64 +3909,66 @@
       <c r="P80" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="Q80" s="1"/>
+      <c r="Q80" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
+      <c r="S80" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
+      <c r="U80" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="V80" s="1"/>
-      <c r="W80" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X80" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C81" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="D81" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="E81" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="F81" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="G81" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="H81" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="I81" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="J81" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="K81" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="L81" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="M81" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="N81" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="O81" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="P81" s="23">
-        <v>1.25</v>
+        <v>102</v>
+      </c>
+      <c r="C81" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N81" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O81" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P81" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
@@ -4057,54 +3976,58 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
+      <c r="W81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X81" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C82" s="7">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D82" s="8">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E82" s="7">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F82" s="8">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G82" s="15">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="H82" s="16">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="I82" s="15">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="J82" s="16">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="K82" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="L82" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="M82" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="N82" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="O82" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="P82" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -4117,49 +4040,49 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C83" s="7">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="D83" s="8">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="E83" s="7">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="F83" s="8">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="G83" s="15">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="H83" s="16">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="I83" s="15">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="J83" s="16">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="K83" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="L83" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="M83" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="N83" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="O83" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="P83" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -4172,99 +4095,127 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D84" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K84" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M84" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N84" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O84" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P84" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C84" s="7">
+        <v>30</v>
+      </c>
+      <c r="D84" s="8">
+        <v>30</v>
+      </c>
+      <c r="E84" s="7">
+        <v>30</v>
+      </c>
+      <c r="F84" s="8">
+        <v>30</v>
+      </c>
+      <c r="G84" s="15">
+        <v>30</v>
+      </c>
+      <c r="H84" s="16">
+        <v>30</v>
+      </c>
+      <c r="I84" s="15">
+        <v>30</v>
+      </c>
+      <c r="J84" s="16">
+        <v>30</v>
+      </c>
+      <c r="K84" s="23">
+        <v>30</v>
+      </c>
+      <c r="L84" s="23">
+        <v>30</v>
+      </c>
+      <c r="M84" s="23">
+        <v>30</v>
+      </c>
+      <c r="N84" s="23">
+        <v>30</v>
+      </c>
+      <c r="O84" s="23">
+        <v>30</v>
+      </c>
+      <c r="P84" s="23">
+        <v>30</v>
+      </c>
+      <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-      <c r="S84" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="S84" s="1"/>
       <c r="T84" s="1"/>
-      <c r="U84" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="U84" s="1"/>
       <c r="V84" s="1"/>
-      <c r="W84" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X84" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="C85" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P85" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
+      <c r="S85" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
+      <c r="U85" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="V85" s="1"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
+      <c r="W85" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X85" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -4286,16 +4237,12 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
-      <c r="W86" s="4">
-        <v>3</v>
-      </c>
-      <c r="X86" s="4">
-        <v>3</v>
-      </c>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -4318,15 +4265,15 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
       <c r="W87" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X87" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -4349,32 +4296,24 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
       <c r="W88" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X88" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
       <c r="E89" s="7"/>
       <c r="F89" s="8"/>
-      <c r="G89" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H89" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I89" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J89" s="16" t="s">
-        <v>113</v>
-      </c>
+      <c r="G89" s="15"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
       <c r="K89" s="23"/>
       <c r="L89" s="24"/>
       <c r="M89" s="23"/>
@@ -4387,36 +4326,32 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
+      <c r="W89" s="4">
+        <v>3</v>
+      </c>
+      <c r="X89" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D90" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="16" t="b">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="K90" s="23"/>
       <c r="L90" s="24"/>
@@ -4435,62 +4370,50 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L91" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M91" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N91" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O91" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P91" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V91" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W91" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X91" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C91" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" s="23"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -4500,24 +4423,52 @@
       <c r="H92" s="16"/>
       <c r="I92" s="15"/>
       <c r="J92" s="16"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="23"/>
-      <c r="P92" s="24"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
+      <c r="K92" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M92" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N92" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O92" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P92" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W92" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X92" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
@@ -4533,34 +4484,18 @@
       <c r="N93" s="24"/>
       <c r="O93" s="23"/>
       <c r="P93" s="24"/>
-      <c r="Q93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W93" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X93" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -4576,18 +4511,34 @@
       <c r="N94" s="24"/>
       <c r="O94" s="23"/>
       <c r="P94" s="24"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="4"/>
-      <c r="X94" s="4"/>
+      <c r="Q94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W94" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X94" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
@@ -4597,42 +4548,24 @@
       <c r="H95" s="16"/>
       <c r="I95" s="15"/>
       <c r="J95" s="16"/>
-      <c r="K95" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M95" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N95" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O95" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P95" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="K95" s="23"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
-      <c r="S95" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="S95" s="1"/>
       <c r="T95" s="1"/>
-      <c r="U95" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
@@ -4642,24 +4575,42 @@
       <c r="H96" s="16"/>
       <c r="I96" s="15"/>
       <c r="J96" s="16"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="23"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="1"/>
+      <c r="K96" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N96" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P96" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
+      <c r="S96" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
+      <c r="U96" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="V96" s="1"/>
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8"/>
@@ -4669,42 +4620,24 @@
       <c r="H97" s="16"/>
       <c r="I97" s="15"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="L97" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="M97" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="N97" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O97" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="P97" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="K97" s="23"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
-      <c r="S97" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="S97" s="1"/>
       <c r="T97" s="1"/>
-      <c r="U97" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
@@ -4714,216 +4647,206 @@
       <c r="H98" s="16"/>
       <c r="I98" s="15"/>
       <c r="J98" s="16"/>
-      <c r="K98" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="L98" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="M98" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="N98" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="O98" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="P98" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="Q98" s="1"/>
+      <c r="K98" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L98" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="M98" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N98" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="O98" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P98" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
+      <c r="S98" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
+      <c r="U98" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="V98" s="1"/>
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
       <c r="E99" s="7"/>
       <c r="F99" s="8"/>
-      <c r="G99" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I99" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="J99" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K99" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="L99" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="M99" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="N99" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O99" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="P99" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="G99" s="15"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="L99" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="M99" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="N99" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="O99" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="P99" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
-      <c r="S99" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="S99" s="1"/>
       <c r="T99" s="1"/>
-      <c r="U99" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="U99" s="1"/>
       <c r="V99" s="1"/>
-      <c r="W99" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="X99" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
       <c r="E100" s="7"/>
       <c r="F100" s="8"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
+      <c r="G100" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="K100" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L100" s="24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N100" s="24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O100" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P100" s="24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R100" s="1"/>
       <c r="S100" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="T100" s="1"/>
       <c r="U100" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="V100" s="1"/>
-      <c r="W100" s="4"/>
-      <c r="X100" s="4"/>
+      <c r="W100" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="X100" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="8"/>
       <c r="E101" s="7"/>
       <c r="F101" s="8"/>
-      <c r="G101" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H101" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I101" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J101" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="23"/>
-      <c r="N101" s="24"/>
-      <c r="O101" s="23"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="1"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L101" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="M101" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="N101" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="O101" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P101" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
+      <c r="S101" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
+      <c r="U101" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="V101" s="1"/>
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C102" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="D102" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="E102" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F102" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G102" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="H102" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="I102" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="J102" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="K102" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="L102" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="M102" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="N102" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="O102" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="P102" s="24">
-        <v>0.15</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K102" s="23"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="23"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="24"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -4935,114 +4858,104 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C103" s="7">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="D103" s="8">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="E103" s="7">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="F103" s="8">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="G103" s="15">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="H103" s="16">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="I103" s="15">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="J103" s="16">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="K103" s="23">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="L103" s="24">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="M103" s="23">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="N103" s="24">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="O103" s="23">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="P103" s="24">
-        <v>8</v>
-      </c>
-      <c r="Q103" s="1">
-        <v>0</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
-      <c r="S103" s="1">
-        <v>0</v>
-      </c>
+      <c r="S103" s="1"/>
       <c r="T103" s="1"/>
-      <c r="U103" s="1">
-        <v>0</v>
-      </c>
+      <c r="U103" s="1"/>
       <c r="V103" s="1"/>
-      <c r="W103" s="4">
-        <v>0</v>
-      </c>
-      <c r="X103" s="4">
-        <v>0</v>
-      </c>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C104" s="7">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D104" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E104" s="7">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="F104" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G104" s="15">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="H104" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I104" s="15">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="J104" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K104" s="23">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="L104" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M104" s="23">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="N104" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O104" s="23">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="P104" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q104" s="1">
         <v>0</v>
@@ -5065,349 +4978,359 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H105" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I105" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J105" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K105" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="L105" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="M105" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="N105" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="O105" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="P105" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
+      </c>
+      <c r="C105" s="7">
+        <v>0</v>
+      </c>
+      <c r="D105" s="8">
+        <v>0</v>
+      </c>
+      <c r="E105" s="7">
+        <v>0</v>
+      </c>
+      <c r="F105" s="8">
+        <v>0</v>
+      </c>
+      <c r="G105" s="15">
+        <v>0</v>
+      </c>
+      <c r="H105" s="16">
+        <v>0</v>
+      </c>
+      <c r="I105" s="15">
+        <v>0</v>
+      </c>
+      <c r="J105" s="16">
+        <v>0</v>
+      </c>
+      <c r="K105" s="23">
+        <v>0</v>
+      </c>
+      <c r="L105" s="24">
+        <v>0</v>
+      </c>
+      <c r="M105" s="23">
+        <v>0</v>
+      </c>
+      <c r="N105" s="24">
+        <v>0</v>
+      </c>
+      <c r="O105" s="23">
+        <v>0</v>
+      </c>
+      <c r="P105" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>0</v>
       </c>
       <c r="R105" s="1"/>
-      <c r="S105" s="1" t="s">
-        <v>137</v>
+      <c r="S105" s="1">
+        <v>0</v>
       </c>
       <c r="T105" s="1"/>
-      <c r="U105" s="1" t="s">
-        <v>137</v>
+      <c r="U105" s="1">
+        <v>0</v>
       </c>
       <c r="V105" s="1"/>
-      <c r="W105" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="X105" s="4" t="s">
-        <v>138</v>
+      <c r="W105" s="4">
+        <v>0</v>
+      </c>
+      <c r="X105" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C106" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D106" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F106" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G106" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K106" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M106" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N106" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O106" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P106" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="1" t="b">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J106" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K106" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L106" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="M106" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="N106" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="O106" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P106" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="R106" s="1"/>
-      <c r="S106" s="1" t="b">
-        <v>0</v>
+      <c r="S106" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="T106" s="1"/>
-      <c r="U106" s="1" t="b">
-        <v>0</v>
+      <c r="U106" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="V106" s="1"/>
-      <c r="W106" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X106" s="4" t="b">
-        <v>0</v>
+      <c r="W106" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="X106" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H107" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I107" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J107" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K107" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="L107" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="M107" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="N107" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="O107" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="P107" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q107" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="R107" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="S107" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T107" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U107" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V107" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="W107" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="X107" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="C107" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D107" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O107" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P107" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V107" s="1"/>
+      <c r="W107" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X107" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C108" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="D108" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="E108" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="F108" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G108" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="H108" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="I108" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="J108" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="K108" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="L108" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="M108" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="N108" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="O108" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="P108" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="Q108" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="R108" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="S108" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="T108" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="U108" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="V108" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="W108" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="X108" s="4">
-        <v>1.4</v>
+        <v>138</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J108" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K108" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="L108" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="M108" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="N108" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="O108" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="P108" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W108" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="X108" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="23"/>
-      <c r="N109" s="24"/>
-      <c r="O109" s="23"/>
-      <c r="P109" s="24"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="4"/>
-      <c r="X109" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="D109" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="E109" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="F109" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G109" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="H109" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="I109" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="J109" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="K109" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="L109" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="M109" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="N109" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="O109" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="P109" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="R109" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="S109" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="T109" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="U109" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="V109" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="W109" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="X109" s="4">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D110" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E110" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="F110" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="G110" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="H110" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="I110" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="J110" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="K110" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="L110" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="M110" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="N110" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="O110" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="P110" s="24">
-        <v>0.01</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="23"/>
+      <c r="N110" s="24"/>
+      <c r="O110" s="23"/>
+      <c r="P110" s="24"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
@@ -5419,49 +5342,49 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C111" s="7">
-        <v>4</v>
-      </c>
-      <c r="D111" s="8">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="D111" s="7">
+        <v>0.01</v>
       </c>
       <c r="E111" s="7">
-        <v>4</v>
-      </c>
-      <c r="F111" s="8">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="F111" s="7">
+        <v>0.01</v>
       </c>
       <c r="G111" s="15">
-        <v>4</v>
-      </c>
-      <c r="H111" s="16">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="H111" s="15">
+        <v>0.01</v>
       </c>
       <c r="I111" s="15">
-        <v>2</v>
-      </c>
-      <c r="J111" s="16">
-        <v>2</v>
+        <v>0.01</v>
+      </c>
+      <c r="J111" s="15">
+        <v>0.01</v>
       </c>
       <c r="K111" s="23">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="L111" s="24">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="M111" s="23">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="N111" s="24">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="O111" s="23">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="P111" s="24">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
@@ -5469,42 +5392,54 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
-      <c r="W111" s="4">
-        <v>2</v>
-      </c>
-      <c r="X111" s="4">
-        <v>2</v>
-      </c>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
+        <v>143</v>
+      </c>
+      <c r="C112" s="7">
+        <v>4</v>
+      </c>
+      <c r="D112" s="8">
+        <v>4</v>
+      </c>
+      <c r="E112" s="7">
+        <v>4</v>
+      </c>
+      <c r="F112" s="8">
+        <v>4</v>
+      </c>
+      <c r="G112" s="15">
+        <v>4</v>
+      </c>
+      <c r="H112" s="16">
+        <v>4</v>
+      </c>
+      <c r="I112" s="15">
+        <v>2</v>
+      </c>
+      <c r="J112" s="16">
+        <v>2</v>
+      </c>
       <c r="K112" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L112" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M112" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N112" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O112" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P112" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -5512,161 +5447,133 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
-      <c r="W112" s="4"/>
-      <c r="X112" s="4"/>
+      <c r="W112" s="4">
+        <v>2</v>
+      </c>
+      <c r="X112" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H113" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I113" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J113" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K113" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="L113" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="M113" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="N113" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="O113" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="P113" s="24" t="s">
-        <v>98</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="23"/>
+      <c r="N113" s="24"/>
+      <c r="O113" s="23"/>
+      <c r="P113" s="24"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
-      <c r="W113" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="X113" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C114" s="7">
-        <v>10</v>
-      </c>
-      <c r="D114" s="8">
-        <v>10</v>
-      </c>
-      <c r="E114" s="7">
-        <v>10</v>
-      </c>
-      <c r="F114" s="8">
-        <v>10</v>
-      </c>
-      <c r="G114" s="15">
-        <v>5</v>
-      </c>
-      <c r="H114" s="16">
-        <v>5</v>
-      </c>
-      <c r="I114" s="15">
-        <v>5</v>
-      </c>
-      <c r="J114" s="16">
-        <v>5</v>
-      </c>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
-      <c r="M114" s="23"/>
-      <c r="N114" s="24"/>
-      <c r="O114" s="23"/>
-      <c r="P114" s="24"/>
+        <v>145</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J114" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K114" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="L114" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="M114" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="N114" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="O114" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P114" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
-      <c r="W114" s="4">
-        <v>8</v>
-      </c>
-      <c r="X114" s="4">
-        <v>8</v>
+      <c r="W114" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X114" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C115" s="7">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="D115" s="8">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="E115" s="7">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="F115" s="8">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="G115" s="15">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H115" s="16">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="I115" s="15">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="J115" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="K115" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="L115" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="M115" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="N115" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="O115" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="P115" s="24">
-        <v>0.7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K115" s="23"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="23"/>
+      <c r="N115" s="24"/>
+      <c r="O115" s="23"/>
+      <c r="P115" s="24"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -5674,57 +5581,57 @@
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
       <c r="W115" s="4">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="X115" s="4">
-        <v>0.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C116" s="7">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="D116" s="8">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="E116" s="7">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F116" s="8">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G116" s="15">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H116" s="16">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="I116" s="15">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="J116" s="16">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="K116" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="L116" s="23">
-        <v>1.2</v>
+        <v>0.7</v>
+      </c>
+      <c r="L116" s="24">
+        <v>0.7</v>
       </c>
       <c r="M116" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="N116" s="23">
-        <v>1.2</v>
+        <v>0.7</v>
+      </c>
+      <c r="N116" s="24">
+        <v>0.7</v>
       </c>
       <c r="O116" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="P116" s="23">
-        <v>1.2</v>
+        <v>0.7</v>
+      </c>
+      <c r="P116" s="24">
+        <v>0.7</v>
       </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -5733,74 +5640,133 @@
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
       <c r="W116" s="4">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="X116" s="4">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C117" s="11">
-        <v>40</v>
-      </c>
-      <c r="D117" s="12">
-        <v>40</v>
-      </c>
-      <c r="E117" s="11">
-        <v>40</v>
-      </c>
-      <c r="F117" s="12">
-        <v>40</v>
-      </c>
-      <c r="G117" s="19">
-        <v>40</v>
-      </c>
-      <c r="H117" s="20">
-        <v>40</v>
-      </c>
-      <c r="I117" s="19">
-        <v>40</v>
-      </c>
-      <c r="J117" s="20">
-        <v>40</v>
-      </c>
-      <c r="K117" s="27">
-        <v>40</v>
-      </c>
-      <c r="L117" s="28">
-        <v>40</v>
-      </c>
-      <c r="M117" s="27">
-        <v>40</v>
-      </c>
-      <c r="N117" s="28">
-        <v>40</v>
-      </c>
-      <c r="O117" s="27">
-        <v>40</v>
-      </c>
-      <c r="P117" s="28">
-        <v>40</v>
-      </c>
-      <c r="Q117" s="1">
-        <v>40</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D117" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E117" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="F117" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G117" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="H117" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="I117" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="J117" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="K117" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="L117" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="M117" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="N117" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="O117" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="P117" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
-      <c r="S117" s="1">
-        <v>40</v>
-      </c>
+      <c r="S117" s="1"/>
       <c r="T117" s="1"/>
-      <c r="U117" s="1">
-        <v>40</v>
-      </c>
+      <c r="U117" s="1"/>
       <c r="V117" s="1"/>
       <c r="W117" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="X117" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="11">
         <v>40</v>
       </c>
-      <c r="X117" s="4">
+      <c r="D118" s="12">
+        <v>40</v>
+      </c>
+      <c r="E118" s="11">
+        <v>40</v>
+      </c>
+      <c r="F118" s="12">
+        <v>40</v>
+      </c>
+      <c r="G118" s="19">
+        <v>40</v>
+      </c>
+      <c r="H118" s="20">
+        <v>40</v>
+      </c>
+      <c r="I118" s="19">
+        <v>40</v>
+      </c>
+      <c r="J118" s="20">
+        <v>40</v>
+      </c>
+      <c r="K118" s="27">
+        <v>40</v>
+      </c>
+      <c r="L118" s="28">
+        <v>40</v>
+      </c>
+      <c r="M118" s="27">
+        <v>40</v>
+      </c>
+      <c r="N118" s="28">
+        <v>40</v>
+      </c>
+      <c r="O118" s="27">
+        <v>40</v>
+      </c>
+      <c r="P118" s="28">
+        <v>40</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>40</v>
+      </c>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1">
+        <v>40</v>
+      </c>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1">
+        <v>40</v>
+      </c>
+      <c r="V118" s="1"/>
+      <c r="W118" s="4">
+        <v>40</v>
+      </c>
+      <c r="X118" s="4">
         <v>40</v>
       </c>
     </row>

--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenhu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fh986/Documents/Github/crowding-individual-difference/easyEyesSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8FF4F0-B8E3-794E-9077-EC48433F4E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C929F8E7-2DB8-FE40-848A-1952A20CADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="760" windowWidth="27620" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="210">
   <si>
     <t>_about</t>
   </si>
@@ -233,9 +233,6 @@
     <t>markingFixationAfterTargetOnset</t>
   </si>
   <si>
-    <t>disappear</t>
-  </si>
-  <si>
     <t>markingFixationDuringTargetBool</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>markingOnsetAfterTargetOffsetSecs</t>
   </si>
   <si>
-    <t>needEasyEyesKeypadBeyondCm</t>
-  </si>
-  <si>
     <t>questionAndAnswer01</t>
   </si>
   <si>
@@ -339,9 +333,6 @@
   </si>
   <si>
     <t>responseClickedBool</t>
-  </si>
-  <si>
-    <t>responseMustClickCrosshairBool</t>
   </si>
   <si>
     <t>responseMustTrackContinuouslyBool</t>
@@ -677,6 +668,9 @@
   </si>
   <si>
     <t>_saveCursorPositionBool</t>
+  </si>
+  <si>
+    <t>typographic</t>
   </si>
 </sst>
 </file>
@@ -1201,12 +1195,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F42C05-3A7A-B849-89F1-BA0E282F9675}">
-  <dimension ref="A1:X118"/>
+  <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="B25" sqref="B25"/>
+      <selection pane="topRight" activeCell="R107" sqref="R107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1228,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1316,7 +1310,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1372,7 +1366,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -1401,7 +1395,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -1488,73 +1482,73 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="N27" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="P27" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="X27" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
@@ -1713,64 +1707,64 @@
         <v>38</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="I31" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K31" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G31" s="17" t="s">
+      <c r="L31" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="H31" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="L31" s="26" t="s">
-        <v>167</v>
-      </c>
       <c r="M31" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="P31" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="N31" s="26" t="s">
+      <c r="Q31" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="O31" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="P31" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
@@ -1908,16 +1902,16 @@
         <v>43</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K34" s="23" t="s">
         <v>43</v>
@@ -1938,22 +1932,22 @@
         <v>43</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
@@ -2071,16 +2065,16 @@
         <v>50</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K37" s="23" t="s">
         <v>50</v>
@@ -2101,22 +2095,22 @@
         <v>50</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
@@ -2190,11 +2184,11 @@
         <v>54</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="15"/>
@@ -2202,15 +2196,15 @@
       <c r="I40" s="15"/>
       <c r="J40" s="16"/>
       <c r="K40" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L40" s="24"/>
       <c r="M40" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N40" s="24"/>
       <c r="O40" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P40" s="24"/>
       <c r="Q40" s="1"/>
@@ -2227,38 +2221,38 @@
         <v>55</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
       <c r="K41" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2274,38 +2268,38 @@
         <v>56</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
       <c r="K42" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2571,16 +2565,12 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="X48" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="7" t="b">
         <v>1</v>
@@ -2624,34 +2614,18 @@
       <c r="P49" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="Q49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X49" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="7">
         <v>0.15</v>
@@ -2706,49 +2680,49 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="D51" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N51" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O51" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P51" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2761,7 +2735,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="7">
         <v>0.5</v>
@@ -2816,7 +2790,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" s="7">
         <v>0.4</v>
@@ -2871,7 +2845,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="7">
         <v>1</v>
@@ -2921,16 +2895,12 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="4">
-        <v>1</v>
-      </c>
-      <c r="X54" s="4">
-        <v>1</v>
-      </c>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
@@ -2957,7 +2927,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="7">
         <v>0.05</v>
@@ -3007,16 +2977,12 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="X56" s="4">
-        <v>0.03</v>
-      </c>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="7">
         <v>0.3</v>
@@ -3071,78 +3037,40 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="7">
-        <v>70</v>
-      </c>
-      <c r="D58" s="8">
-        <v>70</v>
-      </c>
-      <c r="E58" s="7">
-        <v>70</v>
-      </c>
-      <c r="F58" s="8">
-        <v>70</v>
-      </c>
-      <c r="G58" s="15">
-        <v>70</v>
-      </c>
-      <c r="H58" s="16">
-        <v>70</v>
-      </c>
-      <c r="I58" s="15">
-        <v>70</v>
-      </c>
-      <c r="J58" s="16">
-        <v>70</v>
-      </c>
-      <c r="K58" s="23">
-        <v>70</v>
-      </c>
-      <c r="L58" s="24">
-        <v>70</v>
-      </c>
-      <c r="M58" s="23">
-        <v>70</v>
-      </c>
-      <c r="N58" s="24">
-        <v>70</v>
-      </c>
-      <c r="O58" s="23">
-        <v>70</v>
-      </c>
-      <c r="P58" s="24">
-        <v>70</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>70</v>
-      </c>
-      <c r="R58" s="1">
-        <v>70</v>
-      </c>
-      <c r="S58" s="1">
-        <v>70</v>
-      </c>
-      <c r="T58" s="1">
-        <v>70</v>
-      </c>
-      <c r="U58" s="1">
-        <v>70</v>
-      </c>
-      <c r="V58" s="1">
-        <v>70</v>
-      </c>
-      <c r="W58" s="4">
-        <v>70</v>
-      </c>
-      <c r="X58" s="4">
-        <v>70</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="S58" s="1"/>
+      <c r="T58" t="s">
+        <v>189</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -3160,22 +3088,22 @@
       <c r="P59" s="24"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
@@ -3193,22 +3121,22 @@
       <c r="P60" s="24"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S60" s="1"/>
       <c r="T60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
@@ -3226,22 +3154,22 @@
       <c r="P61" s="24"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
@@ -3259,22 +3187,22 @@
       <c r="P62" s="24"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S62" s="1"/>
       <c r="T62" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
@@ -3290,24 +3218,28 @@
       <c r="N63" s="24"/>
       <c r="O63" s="23"/>
       <c r="P63" s="24"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="31" t="s">
+      <c r="Q63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R63" s="1"/>
+      <c r="S63" t="s">
         <v>187</v>
       </c>
-      <c r="S63" s="1"/>
-      <c r="T63" t="s">
-        <v>196</v>
-      </c>
-      <c r="U63" s="1"/>
-      <c r="V63" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
+      <c r="T63" s="1"/>
+      <c r="U63" t="s">
+        <v>195</v>
+      </c>
+      <c r="V63" s="1"/>
+      <c r="W63" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -3323,28 +3255,16 @@
       <c r="N64" s="24"/>
       <c r="O64" s="23"/>
       <c r="P64" s="24"/>
-      <c r="Q64" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="S64" t="s">
-        <v>190</v>
-      </c>
       <c r="T64" s="1"/>
-      <c r="U64" t="s">
-        <v>198</v>
-      </c>
       <c r="V64" s="1"/>
-      <c r="W64" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="X64" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
@@ -3364,12 +3284,16 @@
       <c r="R65" s="1"/>
       <c r="T65" s="1"/>
       <c r="V65" s="1"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
+      <c r="W65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -3384,21 +3308,25 @@
       <c r="M66" s="23"/>
       <c r="N66" s="24"/>
       <c r="O66" s="23"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="1"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="32" t="s">
+        <v>186</v>
+      </c>
       <c r="R66" s="1"/>
+      <c r="S66" t="s">
+        <v>188</v>
+      </c>
       <c r="T66" s="1"/>
+      <c r="U66" t="s">
+        <v>196</v>
+      </c>
       <c r="V66" s="1"/>
-      <c r="W66" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X66" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
@@ -3413,17 +3341,17 @@
       <c r="M67" s="23"/>
       <c r="N67" s="24"/>
       <c r="O67" s="23"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="32" t="s">
-        <v>189</v>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="1">
+        <v>57</v>
       </c>
       <c r="R67" s="1"/>
-      <c r="S67" t="s">
-        <v>191</v>
+      <c r="S67" s="1">
+        <v>57</v>
       </c>
       <c r="T67" s="1"/>
-      <c r="U67" t="s">
-        <v>199</v>
+      <c r="U67" s="1">
+        <v>57</v>
       </c>
       <c r="V67" s="1"/>
       <c r="W67" s="4"/>
@@ -3431,7 +3359,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
@@ -3447,16 +3375,16 @@
       <c r="N68" s="24"/>
       <c r="O68" s="23"/>
       <c r="P68" s="24"/>
-      <c r="Q68" s="1">
-        <v>57</v>
+      <c r="Q68" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="R68" s="1"/>
-      <c r="S68" s="1">
-        <v>57</v>
+      <c r="S68" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="T68" s="1"/>
-      <c r="U68" s="1">
-        <v>57</v>
+      <c r="U68" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="4"/>
@@ -3492,8 +3420,12 @@
         <v>88</v>
       </c>
       <c r="V69" s="1"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
+      <c r="W69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="X69" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -3513,28 +3445,24 @@
       <c r="N70" s="24"/>
       <c r="O70" s="23"/>
       <c r="P70" s="24"/>
-      <c r="Q70" s="1" t="s">
-        <v>90</v>
+      <c r="Q70" s="1">
+        <v>1.2</v>
       </c>
       <c r="R70" s="1"/>
-      <c r="S70" s="1" t="s">
-        <v>90</v>
+      <c r="S70" s="1">
+        <v>1.2</v>
       </c>
       <c r="T70" s="1"/>
-      <c r="U70" s="1" t="s">
-        <v>90</v>
+      <c r="U70" s="1">
+        <v>1.2</v>
       </c>
       <c r="V70" s="1"/>
-      <c r="W70" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="X70" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
@@ -3551,15 +3479,15 @@
       <c r="O71" s="23"/>
       <c r="P71" s="24"/>
       <c r="Q71" s="1">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="R71" s="1"/>
       <c r="S71" s="1">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="T71" s="1"/>
       <c r="U71" s="1">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="V71" s="1"/>
       <c r="W71" s="4"/>
@@ -3567,7 +3495,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
@@ -3584,15 +3512,15 @@
       <c r="O72" s="23"/>
       <c r="P72" s="24"/>
       <c r="Q72" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="4"/>
@@ -3600,7 +3528,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
@@ -3633,7 +3561,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
@@ -3650,15 +3578,15 @@
       <c r="O74" s="23"/>
       <c r="P74" s="24"/>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T74" s="1"/>
       <c r="U74" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V74" s="1"/>
       <c r="W74" s="4"/>
@@ -3666,7 +3594,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="8"/>
@@ -3682,20 +3610,24 @@
       <c r="N75" s="24"/>
       <c r="O75" s="23"/>
       <c r="P75" s="24"/>
-      <c r="Q75" s="1">
-        <v>5</v>
+      <c r="Q75" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="R75" s="1"/>
-      <c r="S75" s="1">
-        <v>5</v>
+      <c r="S75" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="T75" s="1"/>
-      <c r="U75" s="1">
-        <v>5</v>
+      <c r="U75" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="V75" s="1"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
+      <c r="W75" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X75" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -3715,28 +3647,28 @@
       <c r="N76" s="24"/>
       <c r="O76" s="23"/>
       <c r="P76" s="24"/>
-      <c r="Q76" s="1" t="s">
-        <v>97</v>
+      <c r="Q76" s="1">
+        <v>0.3</v>
       </c>
       <c r="R76" s="1"/>
-      <c r="S76" s="1" t="s">
-        <v>97</v>
+      <c r="S76" s="1">
+        <v>0.3</v>
       </c>
       <c r="T76" s="1"/>
-      <c r="U76" s="1" t="s">
-        <v>97</v>
+      <c r="U76" s="1">
+        <v>0.3</v>
       </c>
       <c r="V76" s="1"/>
-      <c r="W76" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X76" s="4" t="s">
-        <v>97</v>
+      <c r="W76" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="X76" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
@@ -3752,55 +3684,83 @@
       <c r="N77" s="24"/>
       <c r="O77" s="23"/>
       <c r="P77" s="24"/>
-      <c r="Q77" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="U77" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="X77" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="C78" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N78" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P78" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
+      <c r="S78" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
+      <c r="U78" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="V78" s="1"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
+      <c r="W78" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X78" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="7" t="b">
         <v>1</v>
@@ -3844,131 +3804,119 @@
       <c r="P79" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="Q79" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
-      <c r="U79" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="U79" s="1"/>
       <c r="V79" s="1"/>
       <c r="W79" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X79" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D80" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K80" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M80" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N80" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O80" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P80" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="G80" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="I80" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="J80" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="K80" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="L80" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="M80" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="N80" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="O80" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="P80" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-      <c r="U80" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="U80" s="1"/>
       <c r="V80" s="1"/>
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D81" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F81" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G81" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K81" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M81" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N81" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O81" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P81" s="24" t="b">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D81" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G81" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H81" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="I81" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="J81" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="K81" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="L81" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="M81" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="N81" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="O81" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="P81" s="23">
+        <v>0.75</v>
       </c>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
@@ -3976,58 +3924,54 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
-      <c r="W81" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X81" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C82" s="7">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="D82" s="8">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="E82" s="7">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="F82" s="8">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="G82" s="15">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="H82" s="16">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="I82" s="15">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="J82" s="16">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="K82" s="23">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="L82" s="23">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="M82" s="23">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="N82" s="23">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="O82" s="23">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="P82" s="23">
-        <v>1.25</v>
+        <v>30</v>
       </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -4040,105 +3984,87 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D83" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E83" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F83" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="G83" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="H83" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="I83" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="J83" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="K83" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="L83" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="M83" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="N83" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="O83" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="P83" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="Q83" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="C83" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N83" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P83" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
+      <c r="S83" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
+      <c r="U83" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="V83" s="1"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
+      <c r="W83" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X83" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="7">
-        <v>30</v>
-      </c>
-      <c r="D84" s="8">
-        <v>30</v>
-      </c>
-      <c r="E84" s="7">
-        <v>30</v>
-      </c>
-      <c r="F84" s="8">
-        <v>30</v>
-      </c>
-      <c r="G84" s="15">
-        <v>30</v>
-      </c>
-      <c r="H84" s="16">
-        <v>30</v>
-      </c>
-      <c r="I84" s="15">
-        <v>30</v>
-      </c>
-      <c r="J84" s="16">
-        <v>30</v>
-      </c>
-      <c r="K84" s="23">
-        <v>30</v>
-      </c>
-      <c r="L84" s="23">
-        <v>30</v>
-      </c>
-      <c r="M84" s="23">
-        <v>30</v>
-      </c>
-      <c r="N84" s="23">
-        <v>30</v>
-      </c>
-      <c r="O84" s="23">
-        <v>30</v>
-      </c>
-      <c r="P84" s="23">
-        <v>30</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="24"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -4150,72 +4076,38 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D85" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G85" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K85" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M85" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N85" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O85" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P85" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
-      <c r="S85" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="S85" s="1"/>
       <c r="T85" s="1"/>
-      <c r="U85" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="U85" s="1"/>
       <c r="V85" s="1"/>
-      <c r="W85" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X85" s="4" t="b">
-        <v>1</v>
+      <c r="W85" s="4">
+        <v>3</v>
+      </c>
+      <c r="X85" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -4237,12 +4129,16 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
+      <c r="W86" s="4">
+        <v>5</v>
+      </c>
+      <c r="X86" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -4273,16 +4169,24 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
       <c r="E88" s="7"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
+      <c r="G88" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J88" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="K88" s="23"/>
       <c r="L88" s="24"/>
       <c r="M88" s="23"/>
@@ -4295,25 +4199,37 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
-      <c r="W88" s="4">
-        <v>5</v>
-      </c>
-      <c r="X88" s="4">
-        <v>5</v>
-      </c>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
+      <c r="C89" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="K89" s="23"/>
       <c r="L89" s="24"/>
       <c r="M89" s="23"/>
@@ -4326,76 +4242,92 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
-      <c r="W89" s="4">
-        <v>3</v>
-      </c>
-      <c r="X89" s="4">
-        <v>3</v>
-      </c>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H90" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I90" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J90" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="23"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
+      <c r="C90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N90" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P90" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X90" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D91" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" s="16" t="b">
-        <v>0</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
       <c r="K91" s="23"/>
       <c r="L91" s="24"/>
       <c r="M91" s="23"/>
@@ -4413,7 +4345,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -4423,52 +4355,24 @@
       <c r="H92" s="16"/>
       <c r="I92" s="15"/>
       <c r="J92" s="16"/>
-      <c r="K92" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M92" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N92" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O92" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P92" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W92" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X92" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="K92" s="23"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
@@ -4495,7 +4399,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -4505,40 +4409,42 @@
       <c r="H94" s="16"/>
       <c r="I94" s="15"/>
       <c r="J94" s="16"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="23"/>
-      <c r="P94" s="24"/>
+      <c r="K94" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O94" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P94" s="24" t="b">
+        <v>0</v>
+      </c>
       <c r="Q94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="R94" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="R94" s="1"/>
       <c r="S94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T94" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="T94" s="1"/>
       <c r="U94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="V94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W94" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X94" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="V94" s="1"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
@@ -4565,7 +4471,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
@@ -4575,35 +4481,29 @@
       <c r="H96" s="16"/>
       <c r="I96" s="15"/>
       <c r="J96" s="16"/>
-      <c r="K96" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M96" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N96" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O96" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P96" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="K96" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L96" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="M96" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N96" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O96" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P96" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
-      <c r="S96" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="S96" s="1"/>
       <c r="T96" s="1"/>
-      <c r="U96" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
@@ -4620,12 +4520,24 @@
       <c r="H97" s="16"/>
       <c r="I97" s="15"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="24"/>
-      <c r="O97" s="23"/>
-      <c r="P97" s="24"/>
+      <c r="K97" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="L97" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="M97" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="N97" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="O97" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="P97" s="24">
+        <v>1.4</v>
+      </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
@@ -4643,46 +4555,58 @@
       <c r="D98" s="8"/>
       <c r="E98" s="7"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
+      <c r="G98" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="K98" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L98" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M98" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N98" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O98" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P98" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="R98" s="1"/>
       <c r="S98" s="1" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="T98" s="1"/>
       <c r="U98" s="1" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="V98" s="1"/>
-      <c r="W98" s="4"/>
-      <c r="X98" s="4"/>
+      <c r="W98" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="X98" s="4" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
@@ -4692,23 +4616,23 @@
       <c r="H99" s="16"/>
       <c r="I99" s="15"/>
       <c r="J99" s="16"/>
-      <c r="K99" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="L99" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="M99" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="N99" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="O99" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="P99" s="24">
-        <v>1.4</v>
+      <c r="K99" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L99" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="M99" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="N99" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="O99" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="P99" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -4721,384 +4645,418 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
       <c r="E100" s="7"/>
       <c r="F100" s="8"/>
       <c r="G100" s="15" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K100" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="L100" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="M100" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="N100" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="O100" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="P100" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K100" s="23"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
-      <c r="S100" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="S100" s="1"/>
       <c r="T100" s="1"/>
-      <c r="U100" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="U100" s="1"/>
       <c r="V100" s="1"/>
-      <c r="W100" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="X100" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="L101" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="M101" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="N101" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="O101" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="P101" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="C101" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E101" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="F101" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G101" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="H101" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="I101" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="J101" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="K101" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="L101" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="M101" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="N101" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="O101" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="P101" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
-      <c r="S101" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="S101" s="1"/>
       <c r="T101" s="1"/>
-      <c r="U101" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H102" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I102" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J102" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="23"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="23"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="C102" s="7">
+        <v>-8</v>
+      </c>
+      <c r="D102" s="8">
+        <v>8</v>
+      </c>
+      <c r="E102" s="7">
+        <v>-8</v>
+      </c>
+      <c r="F102" s="8">
+        <v>8</v>
+      </c>
+      <c r="G102" s="15">
+        <v>-8</v>
+      </c>
+      <c r="H102" s="16">
+        <v>8</v>
+      </c>
+      <c r="I102" s="15">
+        <v>-8</v>
+      </c>
+      <c r="J102" s="16">
+        <v>8</v>
+      </c>
+      <c r="K102" s="23">
+        <v>-8</v>
+      </c>
+      <c r="L102" s="24">
+        <v>8</v>
+      </c>
+      <c r="M102" s="23">
+        <v>-8</v>
+      </c>
+      <c r="N102" s="24">
+        <v>8</v>
+      </c>
+      <c r="O102" s="23">
+        <v>-8</v>
+      </c>
+      <c r="P102" s="24">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0</v>
+      </c>
       <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
+      <c r="S102" s="1">
+        <v>0</v>
+      </c>
       <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
+      <c r="U102" s="1">
+        <v>0</v>
+      </c>
       <c r="V102" s="1"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
+      <c r="W102" s="4">
+        <v>0</v>
+      </c>
+      <c r="X102" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C103" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D103" s="8">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E103" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F103" s="8">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G103" s="15">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H103" s="16">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I103" s="15">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J103" s="16">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K103" s="23">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L103" s="24">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M103" s="23">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N103" s="24">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O103" s="23">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P103" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="Q103" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>0</v>
+      </c>
       <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
+      <c r="S103" s="1">
+        <v>0</v>
+      </c>
       <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
+      <c r="U103" s="1">
+        <v>0</v>
+      </c>
       <c r="V103" s="1"/>
-      <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
+      <c r="W103" s="4">
+        <v>0</v>
+      </c>
+      <c r="X103" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="7">
-        <v>-8</v>
-      </c>
-      <c r="D104" s="8">
-        <v>8</v>
-      </c>
-      <c r="E104" s="7">
-        <v>-8</v>
-      </c>
-      <c r="F104" s="8">
-        <v>8</v>
-      </c>
-      <c r="G104" s="15">
-        <v>-8</v>
-      </c>
-      <c r="H104" s="16">
-        <v>8</v>
-      </c>
-      <c r="I104" s="15">
-        <v>-8</v>
-      </c>
-      <c r="J104" s="16">
-        <v>8</v>
-      </c>
-      <c r="K104" s="23">
-        <v>-8</v>
-      </c>
-      <c r="L104" s="24">
-        <v>8</v>
-      </c>
-      <c r="M104" s="23">
-        <v>-8</v>
-      </c>
-      <c r="N104" s="24">
-        <v>8</v>
-      </c>
-      <c r="O104" s="23">
-        <v>-8</v>
-      </c>
-      <c r="P104" s="24">
-        <v>8</v>
-      </c>
-      <c r="Q104" s="1">
-        <v>0</v>
+      <c r="D104" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J104" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K104" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="L104" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="M104" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N104" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="O104" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P104" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="R104" s="1"/>
-      <c r="S104" s="1">
-        <v>0</v>
+      <c r="S104" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="T104" s="1"/>
-      <c r="U104" s="1">
-        <v>0</v>
+      <c r="U104" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="V104" s="1"/>
-      <c r="W104" s="4">
-        <v>0</v>
-      </c>
-      <c r="X104" s="4">
-        <v>0</v>
+      <c r="W104" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="X104" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C105" s="7">
-        <v>0</v>
-      </c>
-      <c r="D105" s="8">
-        <v>0</v>
-      </c>
-      <c r="E105" s="7">
-        <v>0</v>
-      </c>
-      <c r="F105" s="8">
-        <v>0</v>
-      </c>
-      <c r="G105" s="15">
-        <v>0</v>
-      </c>
-      <c r="H105" s="16">
-        <v>0</v>
-      </c>
-      <c r="I105" s="15">
-        <v>0</v>
-      </c>
-      <c r="J105" s="16">
-        <v>0</v>
-      </c>
-      <c r="K105" s="23">
-        <v>0</v>
-      </c>
-      <c r="L105" s="24">
-        <v>0</v>
-      </c>
-      <c r="M105" s="23">
-        <v>0</v>
-      </c>
-      <c r="N105" s="24">
-        <v>0</v>
-      </c>
-      <c r="O105" s="23">
-        <v>0</v>
-      </c>
-      <c r="P105" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="1">
+        <v>134</v>
+      </c>
+      <c r="C105" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O105" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P105" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R105" s="1"/>
-      <c r="S105" s="1">
+      <c r="S105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="T105" s="1"/>
-      <c r="U105" s="1">
+      <c r="U105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V105" s="1"/>
-      <c r="W105" s="4">
-        <v>0</v>
-      </c>
-      <c r="X105" s="4">
+      <c r="W105" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X105" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K106" s="23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L106" s="24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M106" s="23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N106" s="24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O106" s="23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P106" s="24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R106" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="S106" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T106" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="U106" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V106" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="V106" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="W106" s="4" t="s">
         <v>136</v>
       </c>
@@ -5108,284 +5066,234 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C107" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D107" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F107" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G107" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I107" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K107" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M107" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N107" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O107" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P107" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V107" s="1"/>
-      <c r="W107" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X107" s="4" t="b">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="D107" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="E107" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="F107" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G107" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="H107" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="I107" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="J107" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="K107" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="L107" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="M107" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="N107" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="O107" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="P107" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="R107" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="S107" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="V107" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="W107" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="X107" s="4">
+        <v>1.4</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G108" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H108" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I108" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="J108" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="K108" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="L108" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="M108" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N108" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="O108" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="P108" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T108" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="U108" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V108" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="W108" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="X108" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="24"/>
+      <c r="O108" s="23"/>
+      <c r="P108" s="24"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="C109" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="D109" s="8">
-        <v>1.4</v>
+        <v>0.01</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0.01</v>
       </c>
       <c r="E109" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="F109" s="8">
-        <v>1.4</v>
+        <v>0.01</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0.01</v>
       </c>
       <c r="G109" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="H109" s="16">
-        <v>1.4</v>
+        <v>0.01</v>
+      </c>
+      <c r="H109" s="15">
+        <v>0.01</v>
       </c>
       <c r="I109" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="J109" s="16">
-        <v>1.4</v>
+        <v>0.01</v>
+      </c>
+      <c r="J109" s="15">
+        <v>0.01</v>
       </c>
       <c r="K109" s="23">
-        <v>1.4</v>
+        <v>0.01</v>
       </c>
       <c r="L109" s="24">
-        <v>1.4</v>
+        <v>0.01</v>
       </c>
       <c r="M109" s="23">
-        <v>1.4</v>
+        <v>0.01</v>
       </c>
       <c r="N109" s="24">
-        <v>1.4</v>
+        <v>0.01</v>
       </c>
       <c r="O109" s="23">
-        <v>1.4</v>
+        <v>0.01</v>
       </c>
       <c r="P109" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="Q109" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="R109" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="S109" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="T109" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="U109" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="V109" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="W109" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="X109" s="4">
-        <v>1.4</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="23"/>
-      <c r="N110" s="24"/>
-      <c r="O110" s="23"/>
-      <c r="P110" s="24"/>
+        <v>140</v>
+      </c>
+      <c r="C110" s="7">
+        <v>4</v>
+      </c>
+      <c r="D110" s="8">
+        <v>4</v>
+      </c>
+      <c r="E110" s="7">
+        <v>4</v>
+      </c>
+      <c r="F110" s="8">
+        <v>4</v>
+      </c>
+      <c r="G110" s="15">
+        <v>4</v>
+      </c>
+      <c r="H110" s="16">
+        <v>4</v>
+      </c>
+      <c r="I110" s="15">
+        <v>2</v>
+      </c>
+      <c r="J110" s="16">
+        <v>2</v>
+      </c>
+      <c r="K110" s="23">
+        <v>2</v>
+      </c>
+      <c r="L110" s="24">
+        <v>2</v>
+      </c>
+      <c r="M110" s="23">
+        <v>2</v>
+      </c>
+      <c r="N110" s="24">
+        <v>2</v>
+      </c>
+      <c r="O110" s="23">
+        <v>2</v>
+      </c>
+      <c r="P110" s="24">
+        <v>2</v>
+      </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
-      <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
+      <c r="W110" s="4">
+        <v>2</v>
+      </c>
+      <c r="X110" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D111" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E111" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="F111" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="G111" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="H111" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="I111" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="J111" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="K111" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="L111" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="M111" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="N111" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="O111" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="P111" s="24">
-        <v>0.01</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="23"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="23"/>
+      <c r="P111" s="24"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
@@ -5397,49 +5305,49 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C112" s="7">
-        <v>4</v>
-      </c>
-      <c r="D112" s="8">
-        <v>4</v>
-      </c>
-      <c r="E112" s="7">
-        <v>4</v>
-      </c>
-      <c r="F112" s="8">
-        <v>4</v>
-      </c>
-      <c r="G112" s="15">
-        <v>4</v>
-      </c>
-      <c r="H112" s="16">
-        <v>4</v>
-      </c>
-      <c r="I112" s="15">
-        <v>2</v>
-      </c>
-      <c r="J112" s="16">
-        <v>2</v>
-      </c>
-      <c r="K112" s="23">
-        <v>2</v>
-      </c>
-      <c r="L112" s="24">
-        <v>2</v>
-      </c>
-      <c r="M112" s="23">
-        <v>2</v>
-      </c>
-      <c r="N112" s="24">
-        <v>2</v>
-      </c>
-      <c r="O112" s="23">
-        <v>2</v>
-      </c>
-      <c r="P112" s="24">
-        <v>2</v>
+      <c r="D112" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K112" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L112" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="M112" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="N112" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="O112" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="P112" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -5447,25 +5355,41 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
-      <c r="W112" s="4">
-        <v>2</v>
-      </c>
-      <c r="X112" s="4">
-        <v>2</v>
+      <c r="W112" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="X112" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
+        <v>145</v>
+      </c>
+      <c r="C113" s="7">
+        <v>10</v>
+      </c>
+      <c r="D113" s="8">
+        <v>10</v>
+      </c>
+      <c r="E113" s="7">
+        <v>10</v>
+      </c>
+      <c r="F113" s="8">
+        <v>10</v>
+      </c>
+      <c r="G113" s="15">
+        <v>5</v>
+      </c>
+      <c r="H113" s="16">
+        <v>5</v>
+      </c>
+      <c r="I113" s="15">
+        <v>5</v>
+      </c>
+      <c r="J113" s="16">
+        <v>5</v>
+      </c>
       <c r="K113" s="23"/>
       <c r="L113" s="24"/>
       <c r="M113" s="23"/>
@@ -5478,54 +5402,58 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
-      <c r="W113" s="4"/>
-      <c r="X113" s="4"/>
+      <c r="W113" s="4">
+        <v>8</v>
+      </c>
+      <c r="X113" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C114" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H114" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="I114" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="J114" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="K114" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L114" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="M114" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="N114" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="O114" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="P114" s="24" t="s">
-        <v>97</v>
+      <c r="C114" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D114" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G114" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="H114" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="I114" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J114" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="K114" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="L114" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="M114" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="N114" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="O114" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="P114" s="24">
+        <v>0.7</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -5533,47 +5461,59 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
-      <c r="W114" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X114" s="4" t="s">
-        <v>129</v>
+      <c r="W114" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="X114" s="4">
+        <v>0.7</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C115" s="7">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="D115" s="8">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="E115" s="7">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="F115" s="8">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="G115" s="15">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H115" s="16">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="I115" s="15">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="J115" s="16">
-        <v>5</v>
-      </c>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
-      <c r="M115" s="23"/>
-      <c r="N115" s="24"/>
-      <c r="O115" s="23"/>
-      <c r="P115" s="24"/>
+        <v>1.2</v>
+      </c>
+      <c r="K115" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="L115" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="M115" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="N115" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="O115" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="P115" s="23">
+        <v>1.2</v>
+      </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -5581,192 +5521,74 @@
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
       <c r="W115" s="4">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="X115" s="4">
-        <v>8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C116" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D116" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="E116" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F116" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="G116" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="H116" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="I116" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="J116" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="K116" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="L116" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="M116" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="N116" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="O116" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="P116" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="Q116" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="C116" s="11">
+        <v>40</v>
+      </c>
+      <c r="D116" s="12">
+        <v>40</v>
+      </c>
+      <c r="E116" s="11">
+        <v>40</v>
+      </c>
+      <c r="F116" s="12">
+        <v>40</v>
+      </c>
+      <c r="G116" s="19">
+        <v>40</v>
+      </c>
+      <c r="H116" s="20">
+        <v>40</v>
+      </c>
+      <c r="I116" s="19">
+        <v>40</v>
+      </c>
+      <c r="J116" s="20">
+        <v>40</v>
+      </c>
+      <c r="K116" s="27">
+        <v>40</v>
+      </c>
+      <c r="L116" s="28">
+        <v>40</v>
+      </c>
+      <c r="M116" s="27">
+        <v>40</v>
+      </c>
+      <c r="N116" s="28">
+        <v>40</v>
+      </c>
+      <c r="O116" s="27">
+        <v>40</v>
+      </c>
+      <c r="P116" s="28">
+        <v>40</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>40</v>
+      </c>
       <c r="R116" s="1"/>
-      <c r="S116" s="1"/>
+      <c r="S116" s="1">
+        <v>40</v>
+      </c>
       <c r="T116" s="1"/>
-      <c r="U116" s="1"/>
+      <c r="U116" s="1">
+        <v>40</v>
+      </c>
       <c r="V116" s="1"/>
       <c r="W116" s="4">
-        <v>0.7</v>
+        <v>40</v>
       </c>
       <c r="X116" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C117" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="D117" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="E117" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="F117" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="G117" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="H117" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="I117" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="J117" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="K117" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="L117" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="M117" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="N117" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="O117" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="P117" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="W117" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="X117" s="4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C118" s="11">
-        <v>40</v>
-      </c>
-      <c r="D118" s="12">
-        <v>40</v>
-      </c>
-      <c r="E118" s="11">
-        <v>40</v>
-      </c>
-      <c r="F118" s="12">
-        <v>40</v>
-      </c>
-      <c r="G118" s="19">
-        <v>40</v>
-      </c>
-      <c r="H118" s="20">
-        <v>40</v>
-      </c>
-      <c r="I118" s="19">
-        <v>40</v>
-      </c>
-      <c r="J118" s="20">
-        <v>40</v>
-      </c>
-      <c r="K118" s="27">
-        <v>40</v>
-      </c>
-      <c r="L118" s="28">
-        <v>40</v>
-      </c>
-      <c r="M118" s="27">
-        <v>40</v>
-      </c>
-      <c r="N118" s="28">
-        <v>40</v>
-      </c>
-      <c r="O118" s="27">
-        <v>40</v>
-      </c>
-      <c r="P118" s="28">
-        <v>40</v>
-      </c>
-      <c r="Q118" s="1">
-        <v>40</v>
-      </c>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1">
-        <v>40</v>
-      </c>
-      <c r="T118" s="1"/>
-      <c r="U118" s="1">
-        <v>40</v>
-      </c>
-      <c r="V118" s="1"/>
-      <c r="W118" s="4">
-        <v>40</v>
-      </c>
-      <c r="X118" s="4">
         <v>40</v>
       </c>
     </row>

--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fh986/Documents/Github/crowding-individual-difference/easyEyesSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C929F8E7-2DB8-FE40-848A-1952A20CADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3CDDD7-299F-644F-8A1B-D21209B3EE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26520" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1197,10 +1197,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F42C05-3A7A-B849-89F1-BA0E282F9675}">
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="R107" sqref="R107"/>
+      <selection pane="topRight" activeCell="W45" sqref="W45:X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2456,12 +2456,8 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X45" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -3648,22 +3644,22 @@
       <c r="O76" s="23"/>
       <c r="P76" s="24"/>
       <c r="Q76" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="R76" s="1"/>
       <c r="S76" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T76" s="1"/>
       <c r="U76" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="V76" s="1"/>
       <c r="W76" s="4">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="X76" s="4">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">

--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fh986/Documents/Github/crowding-individual-difference/easyEyesSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3CDDD7-299F-644F-8A1B-D21209B3EE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395D8520-4163-D848-8863-A5AC5F799168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26520" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
+    <workbookView xWindow="3220" yWindow="6280" windowWidth="51200" windowHeight="26520" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1200,7 +1200,7 @@
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="W45" sqref="W45:X45"/>
+      <selection pane="topRight" activeCell="Q82" sqref="Q82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3928,46 +3928,46 @@
         <v>102</v>
       </c>
       <c r="C82" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D82" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E82" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F82" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G82" s="15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H82" s="16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I82" s="15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J82" s="16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K82" s="23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L82" s="23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M82" s="23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N82" s="23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="O82" s="23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P82" s="23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>

--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fh986/Documents/Github/crowding-individual-difference/easyEyesSpreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenhu/Documents/GitHub/crowding-individual-difference/easyEyesSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3CDDD7-299F-644F-8A1B-D21209B3EE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A2B08D-90A1-E644-9055-556695FC6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26520" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
+    <workbookView xWindow="1040" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1197,10 +1197,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F42C05-3A7A-B849-89F1-BA0E282F9675}">
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="W45" sqref="W45:X45"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,7 +1406,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">

--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenhu/Documents/GitHub/crowding-individual-difference/easyEyesSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A2B08D-90A1-E644-9055-556695FC6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427696B1-4582-FE40-90CB-7FC3EEFB36C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
+    <workbookView xWindow="1200" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>_online1Title</t>
   </si>
   <si>
-    <t>Letters and Reading</t>
-  </si>
-  <si>
     <t>_online2Description</t>
   </si>
   <si>
@@ -501,9 +498,6 @@
   </si>
   <si>
     <t>Keep the cursor at the center of the black cross until the triplet appears.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests letter recognition and reading. Needs a computer with at least 6 cores. </t>
   </si>
   <si>
     <t>In this block, you will again need to keep your cursor at the center of a moving black cross until a letter appears. The letter will appear away from the cross. You must recognize it by typing it on the keyboard. In some trials, the letter might be very small. Try anyway.
@@ -671,6 +665,13 @@
   </si>
   <si>
     <t>typographic</t>
+  </si>
+  <si>
+    <t>Letters and Reading -- Session 2</t>
+  </si>
+  <si>
+    <t>This experiment session is a continuation of the previous session of the experiment "Letter and Reading". It requires a computer with at least 6 cores.
+In this session, you will perform tasks identical to what you did for the first one. You will respond to letters and read some texts.</t>
   </si>
 </sst>
 </file>
@@ -826,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -861,6 +862,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,7 +1204,7 @@
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1222,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,20 +1306,20 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>155</v>
+      <c r="B13" s="34" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>60</v>
@@ -1323,7 +1327,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
@@ -1331,15 +1335,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -1347,7 +1351,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>0</v>
@@ -1355,7 +1359,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
@@ -1363,15 +1367,15 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
@@ -1379,23 +1383,23 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -1403,7 +1407,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
@@ -1411,7 +1415,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -1482,78 +1486,78 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="L27" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W27" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="X27" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="N27" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="P27" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7" t="b">
         <v>1</v>
@@ -1618,7 +1622,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="7" t="b">
         <v>1</v>
@@ -1677,7 +1681,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -1704,72 +1708,72 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="H31" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="I31" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="J31" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="K31" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="L31" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="I31" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="L31" s="26" t="s">
-        <v>164</v>
-      </c>
       <c r="M31" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="O31" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="N31" s="26" t="s">
+      <c r="P31" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="O31" s="25" t="s">
+      <c r="Q31" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="P31" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -1828,7 +1832,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="7">
         <v>10</v>
@@ -1887,137 +1891,137 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O34" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="H35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="I35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="J35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="K35" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="M35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="P35" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
@@ -2050,88 +2054,88 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="D37" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
       <c r="G38" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
@@ -2150,7 +2154,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -2181,14 +2185,14 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="15"/>
@@ -2196,15 +2200,15 @@
       <c r="I40" s="15"/>
       <c r="J40" s="16"/>
       <c r="K40" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L40" s="24"/>
       <c r="M40" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N40" s="24"/>
       <c r="O40" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P40" s="24"/>
       <c r="Q40" s="1"/>
@@ -2218,41 +2222,41 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
       <c r="K41" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2265,41 +2269,41 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
       <c r="K42" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2312,49 +2316,49 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="H43" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="I43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="J43" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="K43" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -2367,7 +2371,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="7">
         <v>-0.25</v>
@@ -2422,7 +2426,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
@@ -2461,7 +2465,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="7">
         <v>2</v>
@@ -2504,23 +2508,23 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
       <c r="G47" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K47" s="23"/>
       <c r="L47" s="24"/>
@@ -2539,7 +2543,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
@@ -2566,7 +2570,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="7" t="b">
         <v>1</v>
@@ -2621,7 +2625,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="7">
         <v>0.15</v>
@@ -2676,49 +2680,49 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D51" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N51" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O51" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P51" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2731,7 +2735,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="7">
         <v>0.5</v>
@@ -2786,7 +2790,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="7">
         <v>0.4</v>
@@ -2841,7 +2845,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="7">
         <v>1</v>
@@ -2896,7 +2900,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
@@ -2923,7 +2927,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="7">
         <v>0.05</v>
@@ -2978,7 +2982,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="7">
         <v>0.3</v>
@@ -3033,7 +3037,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
@@ -3051,22 +3055,22 @@
       <c r="P58" s="24"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S58" s="1"/>
       <c r="T58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U58" s="1"/>
       <c r="V58" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -3084,22 +3088,22 @@
       <c r="P59" s="24"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
@@ -3117,22 +3121,22 @@
       <c r="P60" s="24"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S60" s="1"/>
       <c r="T60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
@@ -3150,22 +3154,22 @@
       <c r="P61" s="24"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
@@ -3183,22 +3187,22 @@
       <c r="P62" s="24"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S62" s="1"/>
       <c r="T62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
@@ -3215,27 +3219,27 @@
       <c r="O63" s="23"/>
       <c r="P63" s="24"/>
       <c r="Q63" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R63" s="1"/>
       <c r="S63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V63" s="1"/>
       <c r="W63" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X63" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -3260,7 +3264,7 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
@@ -3289,7 +3293,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -3306,15 +3310,15 @@
       <c r="O66" s="23"/>
       <c r="P66" s="29"/>
       <c r="Q66" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R66" s="1"/>
       <c r="S66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="T66" s="1"/>
       <c r="U66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V66" s="1"/>
       <c r="W66" s="4"/>
@@ -3322,7 +3326,7 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
@@ -3355,7 +3359,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
@@ -3372,15 +3376,15 @@
       <c r="O68" s="23"/>
       <c r="P68" s="24"/>
       <c r="Q68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="4"/>
@@ -3388,7 +3392,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="8"/>
@@ -3405,27 +3409,27 @@
       <c r="O69" s="23"/>
       <c r="P69" s="24"/>
       <c r="Q69" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V69" s="1"/>
       <c r="W69" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X69" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="8"/>
@@ -3458,7 +3462,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
@@ -3491,7 +3495,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
@@ -3524,7 +3528,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
@@ -3557,7 +3561,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
@@ -3590,7 +3594,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="8"/>
@@ -3607,27 +3611,27 @@
       <c r="O75" s="23"/>
       <c r="P75" s="24"/>
       <c r="Q75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T75" s="1"/>
       <c r="U75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V75" s="1"/>
       <c r="W75" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X75" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
@@ -3691,7 +3695,7 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="7" t="b">
         <v>1</v>
@@ -3756,7 +3760,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="7" t="b">
         <v>1</v>
@@ -3815,7 +3819,7 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" s="7">
         <v>1.25</v>
@@ -3870,7 +3874,7 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="7">
         <v>0.75</v>
@@ -3925,7 +3929,7 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="7">
         <v>30</v>
@@ -3980,7 +3984,7 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="7" t="b">
         <v>1</v>
@@ -4045,7 +4049,7 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
@@ -4072,7 +4076,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -4103,7 +4107,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -4134,7 +4138,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -4165,23 +4169,23 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
       <c r="E88" s="7"/>
       <c r="F88" s="8"/>
       <c r="G88" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J88" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K88" s="23"/>
       <c r="L88" s="24"/>
@@ -4200,7 +4204,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C89" s="7" t="b">
         <v>0</v>
@@ -4243,7 +4247,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C90" s="7" t="b">
         <v>1</v>
@@ -4314,7 +4318,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4341,7 +4345,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -4368,7 +4372,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
@@ -4395,7 +4399,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -4440,7 +4444,7 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
@@ -4467,7 +4471,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
@@ -4478,22 +4482,22 @@
       <c r="I96" s="15"/>
       <c r="J96" s="16"/>
       <c r="K96" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L96" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M96" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N96" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O96" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P96" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -4506,7 +4510,7 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8"/>
@@ -4545,64 +4549,64 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
       <c r="E98" s="7"/>
       <c r="F98" s="8"/>
       <c r="G98" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K98" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="H98" s="16" t="s">
+      <c r="L98" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I98" s="15" t="s">
+      <c r="M98" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="J98" s="16" t="s">
+      <c r="N98" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="K98" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="L98" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="M98" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="N98" s="24" t="s">
-        <v>122</v>
-      </c>
       <c r="O98" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P98" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="R98" s="1"/>
       <c r="S98" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T98" s="1"/>
       <c r="U98" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V98" s="1"/>
       <c r="W98" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X98" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
@@ -4613,22 +4617,22 @@
       <c r="I99" s="15"/>
       <c r="J99" s="16"/>
       <c r="K99" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L99" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M99" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N99" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O99" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P99" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -4641,23 +4645,23 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
       <c r="E100" s="7"/>
       <c r="F100" s="8"/>
       <c r="G100" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K100" s="23"/>
       <c r="L100" s="24"/>
@@ -4676,7 +4680,7 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C101" s="7">
         <v>0.15</v>
@@ -4731,7 +4735,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" s="7">
         <v>-8</v>
@@ -4796,7 +4800,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C103" s="7">
         <v>0</v>
@@ -4861,72 +4865,72 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="D104" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G104" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="H104" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="I104" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="J104" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="K104" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L104" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M104" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="N104" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="O104" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P104" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q104" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="H104" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="I104" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="J104" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K104" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="L104" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="M104" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N104" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="O104" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P104" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="R104" s="1"/>
       <c r="S104" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T104" s="1"/>
       <c r="U104" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V104" s="1"/>
       <c r="W104" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X104" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C105" s="7" t="b">
         <v>0</v>
@@ -4991,78 +4995,78 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="D106" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J106" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K106" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="L106" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="M106" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="N106" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O106" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="P106" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R106" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="S106" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T106" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="U106" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V106" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F106" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I106" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J106" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K106" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="L106" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M106" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N106" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="O106" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="P106" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T106" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="V106" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="W106" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X106" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C107" s="7">
         <v>1.4</v>
@@ -5133,7 +5137,7 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="8"/>
@@ -5160,7 +5164,7 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C109" s="7">
         <v>0.01</v>
@@ -5215,7 +5219,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C110" s="7">
         <v>4</v>
@@ -5274,7 +5278,7 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="8"/>
@@ -5301,49 +5305,49 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="D112" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G112" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="H112" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="I112" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="J112" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="G112" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H112" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="J112" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="K112" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L112" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M112" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N112" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O112" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P112" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -5352,15 +5356,15 @@
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
       <c r="W112" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X112" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C113" s="7">
         <v>10</v>
@@ -5407,7 +5411,7 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C114" s="7">
         <v>0.7</v>
@@ -5466,7 +5470,7 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C115" s="7">
         <v>1.2</v>
@@ -5525,7 +5529,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C116" s="11">
         <v>40</v>

--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenhu/Documents/GitHub/crowding-individual-difference/easyEyesSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427696B1-4582-FE40-90CB-7FC3EEFB36C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1809D3C7-0D46-DC4B-9A24-89C60696E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
+    <workbookView xWindow="1040" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1201,10 +1201,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F42C05-3A7A-B849-89F1-BA0E282F9675}">
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,7 +1309,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -5240,10 +5240,10 @@
         <v>4</v>
       </c>
       <c r="I110" s="15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J110" s="16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K110" s="23">
         <v>2</v>

--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenhu/Documents/GitHub/crowding-individual-difference/easyEyesSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1809D3C7-0D46-DC4B-9A24-89C60696E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AE1F91-D57C-3443-9160-AF7B0C4C149E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="211">
   <si>
     <t>_about</t>
   </si>
@@ -672,6 +672,9 @@
   <si>
     <t>This experiment session is a continuation of the previous session of the experiment "Letter and Reading". It requires a computer with at least 6 cores.
 In this session, you will perform tasks identical to what you did for the first one. You will respond to letters and read some texts.</t>
+  </si>
+  <si>
+    <t>arial.woff2</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1204,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F42C05-3A7A-B849-89F1-BA0E282F9675}">
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="K110" sqref="K110"/>
+      <selection pane="topRight" activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1936,22 +1939,22 @@
         <v>42</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="V34" s="1"/>
-      <c r="W34" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>202</v>
+      <c r="W34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
@@ -2099,22 +2102,22 @@
         <v>49</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="V37" s="1"/>
-      <c r="W37" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="X37" s="4" t="s">
-        <v>203</v>
+      <c r="W37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">

--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenhu/Documents/GitHub/crowding-individual-difference/easyEyesSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AE1F91-D57C-3443-9160-AF7B0C4C149E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C753CBE-E932-D045-ABE3-C07C0952060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
+    <workbookView xWindow="1020" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="213">
   <si>
     <t>_about</t>
   </si>
@@ -675,6 +675,12 @@
   </si>
   <si>
     <t>arial.woff2</t>
+  </si>
+  <si>
+    <t>calibrateTrackDistance</t>
+  </si>
+  <si>
+    <t>blindspot</t>
   </si>
 </sst>
 </file>
@@ -1202,12 +1208,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F42C05-3A7A-B849-89F1-BA0E282F9675}">
-  <dimension ref="A1:X116"/>
+  <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="87" zoomScaleNormal="169" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="169" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="Y37" sqref="Y37"/>
+      <selection pane="topRight" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1625,259 +1631,265 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N29" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P29" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
+      <c r="U29" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="V29" s="1"/>
-      <c r="W29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X29" s="4" t="b">
-        <v>1</v>
+      <c r="W29" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="C30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" s="24" t="b">
+        <v>1</v>
+      </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
+      <c r="W30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X30" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G32" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H32" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I32" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J32" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K32" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="L32" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="M32" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="N31" s="26" t="s">
+      <c r="N32" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="O31" s="25" t="s">
+      <c r="O32" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="P31" s="26" t="s">
+      <c r="P32" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="2" t="s">
+      <c r="R32" s="1"/>
+      <c r="S32" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="T31" s="1"/>
-      <c r="U31" s="2" t="s">
+      <c r="T32" s="1"/>
+      <c r="U32" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V31" s="1"/>
-      <c r="W31" s="3" t="s">
+      <c r="V32" s="1"/>
+      <c r="W32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X31" s="3" t="s">
+      <c r="X32" s="3" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="15">
-        <v>1</v>
-      </c>
-      <c r="H32" s="16">
-        <v>1</v>
-      </c>
-      <c r="I32" s="15">
-        <v>1</v>
-      </c>
-      <c r="J32" s="16">
-        <v>1</v>
-      </c>
-      <c r="K32" s="23">
-        <v>1</v>
-      </c>
-      <c r="L32" s="24">
-        <v>1</v>
-      </c>
-      <c r="M32" s="23">
-        <v>1</v>
-      </c>
-      <c r="N32" s="24">
-        <v>1</v>
-      </c>
-      <c r="O32" s="23">
-        <v>1</v>
-      </c>
-      <c r="P32" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="4">
-        <v>2</v>
-      </c>
-      <c r="X32" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D33" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E33" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F33" s="8">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G33" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H33" s="16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I33" s="15">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J33" s="16">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K33" s="23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L33" s="24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M33" s="23">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N33" s="24">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="O33" s="23">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="P33" s="24">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -1886,287 +1898,319 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X33" s="4">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="K34" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="O34" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="P34" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C34" s="7">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8">
+        <v>10</v>
+      </c>
+      <c r="E34" s="7">
+        <v>35</v>
+      </c>
+      <c r="F34" s="8">
+        <v>35</v>
+      </c>
+      <c r="G34" s="15">
+        <v>10</v>
+      </c>
+      <c r="H34" s="16">
+        <v>10</v>
+      </c>
+      <c r="I34" s="15">
+        <v>35</v>
+      </c>
+      <c r="J34" s="16">
+        <v>35</v>
+      </c>
+      <c r="K34" s="23">
+        <v>10</v>
+      </c>
+      <c r="L34" s="24">
+        <v>10</v>
+      </c>
+      <c r="M34" s="23">
+        <v>35</v>
+      </c>
+      <c r="N34" s="24">
+        <v>35</v>
+      </c>
+      <c r="O34" s="23">
+        <v>35</v>
+      </c>
+      <c r="P34" s="24">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-      <c r="W34" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>210</v>
+      <c r="W34" s="4">
+        <v>5</v>
+      </c>
+      <c r="X34" s="4">
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="V35" s="1"/>
-      <c r="W35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X35" s="4" t="s">
-        <v>46</v>
+      <c r="W35" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="1">
-        <v>0.5</v>
+        <v>43</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="R36" s="1"/>
-      <c r="S36" s="1">
-        <v>0.5</v>
+      <c r="S36" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="T36" s="1"/>
-      <c r="U36" s="1">
-        <v>0.5</v>
+      <c r="U36" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="V36" s="1"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
+      <c r="W36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="O37" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P37" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="1">
+        <v>0.5</v>
       </c>
       <c r="R37" s="1"/>
-      <c r="S37" s="1" t="s">
-        <v>49</v>
+      <c r="S37" s="1">
+        <v>0.5</v>
       </c>
       <c r="T37" s="1"/>
-      <c r="U37" s="1" t="s">
-        <v>49</v>
+      <c r="U37" s="1">
+        <v>0.5</v>
       </c>
       <c r="V37" s="1"/>
-      <c r="W37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="G38" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>51</v>
+        <v>203</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
+      <c r="S38" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
+      <c r="U38" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="V38" s="1"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="W38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
+      <c r="G39" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="K39" s="23"/>
       <c r="L39" s="24"/>
       <c r="M39" s="23"/>
@@ -2179,40 +2223,26 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="4">
-        <v>15</v>
-      </c>
-      <c r="X39" s="4">
-        <v>15</v>
-      </c>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>205</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C40" s="7"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="7" t="s">
-        <v>154</v>
-      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="G40" s="15"/>
       <c r="H40" s="16"/>
       <c r="I40" s="15"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="23" t="s">
-        <v>155</v>
-      </c>
+      <c r="K40" s="23"/>
       <c r="L40" s="24"/>
-      <c r="M40" s="23" t="s">
-        <v>155</v>
-      </c>
+      <c r="M40" s="23"/>
       <c r="N40" s="24"/>
-      <c r="O40" s="23" t="s">
-        <v>155</v>
-      </c>
+      <c r="O40" s="23"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2220,47 +2250,41 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
+      <c r="W40" s="4">
+        <v>15</v>
+      </c>
+      <c r="X40" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>148</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D41" s="8"/>
       <c r="E41" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>148</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F41" s="8"/>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
       <c r="K41" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="L41" s="24" t="s">
-        <v>149</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="L41" s="24"/>
       <c r="M41" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="N41" s="24" t="s">
-        <v>149</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N41" s="24"/>
       <c r="O41" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="P41" s="24" t="s">
-        <v>149</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P41" s="24"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -2272,41 +2296,41 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
       <c r="K42" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2319,49 +2343,41 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>57</v>
+        <v>152</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M43" s="24" t="s">
-        <v>57</v>
+        <v>153</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="O43" s="24" t="s">
-        <v>57</v>
+        <v>153</v>
+      </c>
+      <c r="O43" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -2374,49 +2390,49 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="D44" s="8">
-        <v>-0.25</v>
-      </c>
-      <c r="E44" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="F44" s="8">
-        <v>-0.25</v>
-      </c>
-      <c r="G44" s="15">
-        <v>-0.25</v>
-      </c>
-      <c r="H44" s="16">
-        <v>-0.25</v>
-      </c>
-      <c r="I44" s="15">
-        <v>-0.25</v>
-      </c>
-      <c r="J44" s="16">
-        <v>-0.25</v>
-      </c>
-      <c r="K44" s="23">
-        <v>-0.25</v>
-      </c>
-      <c r="L44" s="23">
-        <v>-0.25</v>
-      </c>
-      <c r="M44" s="23">
-        <v>-0.25</v>
-      </c>
-      <c r="N44" s="23">
-        <v>-0.25</v>
-      </c>
-      <c r="O44" s="23">
-        <v>-0.25</v>
-      </c>
-      <c r="P44" s="23">
-        <v>-0.25</v>
+        <v>56</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O44" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="P44" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -2429,33 +2445,49 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O45" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P45" s="24" t="b">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C45" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="D45" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="E45" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="F45" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="G45" s="15">
+        <v>-0.25</v>
+      </c>
+      <c r="H45" s="16">
+        <v>-0.25</v>
+      </c>
+      <c r="I45" s="15">
+        <v>-0.25</v>
+      </c>
+      <c r="J45" s="16">
+        <v>-0.25</v>
+      </c>
+      <c r="K45" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="L45" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="M45" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="N45" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="O45" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="P45" s="23">
+        <v>-0.25</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -2468,38 +2500,34 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="7">
-        <v>2</v>
-      </c>
-      <c r="D46" s="8">
-        <v>2</v>
-      </c>
-      <c r="E46" s="7">
-        <v>2</v>
-      </c>
-      <c r="F46" s="8">
-        <v>2</v>
-      </c>
-      <c r="G46" s="15">
-        <v>2</v>
-      </c>
-      <c r="H46" s="16">
-        <v>2</v>
-      </c>
-      <c r="I46" s="15">
-        <v>2</v>
-      </c>
-      <c r="J46" s="16">
-        <v>2</v>
-      </c>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" s="24" t="b">
+        <v>0</v>
+      </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -2511,23 +2539,31 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2</v>
+      </c>
+      <c r="E47" s="7">
+        <v>2</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2</v>
+      </c>
+      <c r="G47" s="15">
+        <v>2</v>
+      </c>
+      <c r="H47" s="16">
+        <v>2</v>
+      </c>
+      <c r="I47" s="15">
+        <v>2</v>
+      </c>
+      <c r="J47" s="16">
+        <v>2</v>
       </c>
       <c r="K47" s="23"/>
       <c r="L47" s="24"/>
@@ -2546,16 +2582,24 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
+      <c r="G48" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="K48" s="23"/>
       <c r="L48" s="24"/>
       <c r="M48" s="23"/>
@@ -2573,50 +2617,22 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M49" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N49" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O49" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P49" s="24" t="b">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="24"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -2628,49 +2644,49 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="D50" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G50" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="H50" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="I50" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="J50" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="K50" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="L50" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="M50" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="N50" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="O50" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="P50" s="23">
-        <v>0.15</v>
+        <v>64</v>
+      </c>
+      <c r="C50" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2683,49 +2699,49 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J51" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M51" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N51" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="O51" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="P51" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="H51" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="I51" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="J51" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="K51" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="L51" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="M51" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="N51" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="O51" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="P51" s="23">
+        <v>0.15</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2738,49 +2754,49 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F52" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G52" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H52" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I52" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J52" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K52" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L52" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="M52" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="N52" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="O52" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="P52" s="24">
-        <v>0.5</v>
+        <v>66</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O52" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2793,49 +2809,49 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D53" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F53" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G53" s="15">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H53" s="16">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I53" s="15">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J53" s="16">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K53" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L53" s="24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M53" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N53" s="24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O53" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P53" s="24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2848,49 +2864,49 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D54" s="8">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E54" s="7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F54" s="8">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G54" s="15">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H54" s="16">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I54" s="15">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J54" s="16">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K54" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L54" s="24">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M54" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N54" s="24">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O54" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P54" s="24">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2903,22 +2919,50 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="24"/>
+        <v>70</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1</v>
+      </c>
+      <c r="G55" s="15">
+        <v>1</v>
+      </c>
+      <c r="H55" s="16">
+        <v>1</v>
+      </c>
+      <c r="I55" s="15">
+        <v>1</v>
+      </c>
+      <c r="J55" s="16">
+        <v>1</v>
+      </c>
+      <c r="K55" s="23">
+        <v>1</v>
+      </c>
+      <c r="L55" s="24">
+        <v>1</v>
+      </c>
+      <c r="M55" s="23">
+        <v>1</v>
+      </c>
+      <c r="N55" s="24">
+        <v>1</v>
+      </c>
+      <c r="O55" s="23">
+        <v>1</v>
+      </c>
+      <c r="P55" s="24">
+        <v>1</v>
+      </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -2930,50 +2974,22 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="D56" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="G56" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H56" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="I56" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="J56" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="K56" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="L56" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="M56" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="N56" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="O56" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="P56" s="23">
-        <v>0.05</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="24"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -2985,49 +3001,49 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D57" s="8">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.05</v>
       </c>
       <c r="E57" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F57" s="8">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.05</v>
       </c>
       <c r="G57" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="H57" s="16">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="H57" s="15">
+        <v>0.05</v>
       </c>
       <c r="I57" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="J57" s="16">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="J57" s="15">
+        <v>0.05</v>
       </c>
       <c r="K57" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="L57" s="24">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="L57" s="23">
+        <v>0.05</v>
       </c>
       <c r="M57" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="N57" s="24">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="N57" s="23">
+        <v>0.05</v>
       </c>
       <c r="O57" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="P57" s="24">
-        <v>0.3</v>
+        <v>0.05</v>
+      </c>
+      <c r="P57" s="23">
+        <v>0.05</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -3040,40 +3056,62 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G58" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="H58" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="I58" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="J58" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K58" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="L58" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="M58" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="N58" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="O58" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="P58" s="24">
+        <v>0.3</v>
+      </c>
       <c r="Q58" s="1"/>
-      <c r="R58" s="31" t="s">
-        <v>178</v>
-      </c>
+      <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" t="s">
-        <v>187</v>
-      </c>
+      <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="33" t="s">
-        <v>195</v>
-      </c>
+      <c r="V58" s="1"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -3091,22 +3129,22 @@
       <c r="P59" s="24"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
@@ -3124,22 +3162,22 @@
       <c r="P60" s="24"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S60" s="1"/>
       <c r="T60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
@@ -3157,22 +3195,22 @@
       <c r="P61" s="24"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
@@ -3190,22 +3228,22 @@
       <c r="P62" s="24"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S62" s="1"/>
       <c r="T62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
@@ -3221,28 +3259,24 @@
       <c r="N63" s="24"/>
       <c r="O63" s="23"/>
       <c r="P63" s="24"/>
-      <c r="Q63" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="R63" s="1"/>
-      <c r="S63" t="s">
-        <v>185</v>
-      </c>
-      <c r="T63" s="1"/>
-      <c r="U63" t="s">
-        <v>193</v>
-      </c>
-      <c r="V63" s="1"/>
-      <c r="W63" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="X63" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="S63" s="1"/>
+      <c r="T63" t="s">
+        <v>191</v>
+      </c>
+      <c r="U63" s="1"/>
+      <c r="V63" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -3258,16 +3292,28 @@
       <c r="N64" s="24"/>
       <c r="O64" s="23"/>
       <c r="P64" s="24"/>
-      <c r="Q64" s="1"/>
+      <c r="Q64" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="R64" s="1"/>
+      <c r="S64" t="s">
+        <v>185</v>
+      </c>
       <c r="T64" s="1"/>
+      <c r="U64" t="s">
+        <v>193</v>
+      </c>
       <c r="V64" s="1"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
+      <c r="W64" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="X64" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
@@ -3287,16 +3333,12 @@
       <c r="R65" s="1"/>
       <c r="T65" s="1"/>
       <c r="V65" s="1"/>
-      <c r="W65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X65" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -3311,25 +3353,21 @@
       <c r="M66" s="23"/>
       <c r="N66" s="24"/>
       <c r="O66" s="23"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="32" t="s">
-        <v>184</v>
-      </c>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" t="s">
-        <v>186</v>
-      </c>
       <c r="T66" s="1"/>
-      <c r="U66" t="s">
-        <v>194</v>
-      </c>
       <c r="V66" s="1"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
+      <c r="W66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X66" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
@@ -3344,17 +3382,17 @@
       <c r="M67" s="23"/>
       <c r="N67" s="24"/>
       <c r="O67" s="23"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="1">
-        <v>57</v>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="R67" s="1"/>
-      <c r="S67" s="1">
-        <v>57</v>
+      <c r="S67" t="s">
+        <v>186</v>
       </c>
       <c r="T67" s="1"/>
-      <c r="U67" s="1">
-        <v>57</v>
+      <c r="U67" t="s">
+        <v>194</v>
       </c>
       <c r="V67" s="1"/>
       <c r="W67" s="4"/>
@@ -3362,7 +3400,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
@@ -3378,16 +3416,16 @@
       <c r="N68" s="24"/>
       <c r="O68" s="23"/>
       <c r="P68" s="24"/>
-      <c r="Q68" s="1" t="s">
-        <v>85</v>
+      <c r="Q68" s="1">
+        <v>57</v>
       </c>
       <c r="R68" s="1"/>
-      <c r="S68" s="1" t="s">
-        <v>85</v>
+      <c r="S68" s="1">
+        <v>57</v>
       </c>
       <c r="T68" s="1"/>
-      <c r="U68" s="1" t="s">
-        <v>85</v>
+      <c r="U68" s="1">
+        <v>57</v>
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="4"/>
@@ -3395,7 +3433,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="8"/>
@@ -3412,27 +3450,23 @@
       <c r="O69" s="23"/>
       <c r="P69" s="24"/>
       <c r="Q69" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V69" s="1"/>
-      <c r="W69" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="X69" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="8"/>
@@ -3448,24 +3482,28 @@
       <c r="N70" s="24"/>
       <c r="O70" s="23"/>
       <c r="P70" s="24"/>
-      <c r="Q70" s="1">
-        <v>1.2</v>
+      <c r="Q70" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="R70" s="1"/>
-      <c r="S70" s="1">
-        <v>1.2</v>
+      <c r="S70" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="T70" s="1"/>
-      <c r="U70" s="1">
-        <v>1.2</v>
+      <c r="U70" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="V70" s="1"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
+      <c r="W70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X70" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
@@ -3482,15 +3520,15 @@
       <c r="O71" s="23"/>
       <c r="P71" s="24"/>
       <c r="Q71" s="1">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="R71" s="1"/>
       <c r="S71" s="1">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="T71" s="1"/>
       <c r="U71" s="1">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="V71" s="1"/>
       <c r="W71" s="4"/>
@@ -3498,7 +3536,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
@@ -3515,15 +3553,15 @@
       <c r="O72" s="23"/>
       <c r="P72" s="24"/>
       <c r="Q72" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="4"/>
@@ -3531,7 +3569,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
@@ -3564,7 +3602,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
@@ -3581,15 +3619,15 @@
       <c r="O74" s="23"/>
       <c r="P74" s="24"/>
       <c r="Q74" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T74" s="1"/>
       <c r="U74" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V74" s="1"/>
       <c r="W74" s="4"/>
@@ -3597,7 +3635,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="8"/>
@@ -3613,28 +3651,24 @@
       <c r="N75" s="24"/>
       <c r="O75" s="23"/>
       <c r="P75" s="24"/>
-      <c r="Q75" s="1" t="s">
-        <v>94</v>
+      <c r="Q75" s="1">
+        <v>5</v>
       </c>
       <c r="R75" s="1"/>
-      <c r="S75" s="1" t="s">
-        <v>94</v>
+      <c r="S75" s="1">
+        <v>5</v>
       </c>
       <c r="T75" s="1"/>
-      <c r="U75" s="1" t="s">
-        <v>94</v>
+      <c r="U75" s="1">
+        <v>5</v>
       </c>
       <c r="V75" s="1"/>
-      <c r="W75" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X75" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
@@ -3650,28 +3684,28 @@
       <c r="N76" s="24"/>
       <c r="O76" s="23"/>
       <c r="P76" s="24"/>
-      <c r="Q76" s="1">
-        <v>0.5</v>
+      <c r="Q76" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="R76" s="1"/>
-      <c r="S76" s="1">
-        <v>0.5</v>
+      <c r="S76" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="T76" s="1"/>
-      <c r="U76" s="1">
-        <v>0.5</v>
+      <c r="U76" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="V76" s="1"/>
-      <c r="W76" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="X76" s="4">
-        <v>0.9</v>
+      <c r="W76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X76" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
@@ -3687,83 +3721,55 @@
       <c r="N77" s="24"/>
       <c r="O77" s="23"/>
       <c r="P77" s="24"/>
-      <c r="Q77" s="1"/>
+      <c r="Q77" s="1">
+        <v>0.5</v>
+      </c>
       <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
+      <c r="S77" s="1">
+        <v>0.5</v>
+      </c>
       <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
+      <c r="U77" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V77" s="1"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
+      <c r="W77" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="X77" s="4">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C78" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D78" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G78" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K78" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N78" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O78" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P78" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-      <c r="U78" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X78" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="7" t="b">
         <v>1</v>
@@ -3807,64 +3813,70 @@
       <c r="P79" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="Q79" s="1"/>
+      <c r="Q79" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
+      <c r="S79" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
+      <c r="U79" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="V79" s="1"/>
       <c r="W79" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X79" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C80" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="D80" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="E80" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="F80" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="G80" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="H80" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="I80" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="J80" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="K80" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="L80" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="M80" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="N80" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="O80" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="P80" s="23">
-        <v>1.25</v>
+        <v>98</v>
+      </c>
+      <c r="C80" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N80" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P80" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
@@ -3872,54 +3884,58 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
+      <c r="W80" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X80" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" s="7">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D81" s="8">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E81" s="7">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F81" s="8">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G81" s="15">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="H81" s="16">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="I81" s="15">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="J81" s="16">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="K81" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="L81" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="M81" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="N81" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="O81" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="P81" s="23">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
@@ -3932,49 +3948,49 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="7">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="D82" s="8">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="E82" s="7">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="F82" s="8">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="G82" s="15">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="H82" s="16">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="I82" s="15">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="J82" s="16">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="K82" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="L82" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="M82" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="N82" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="O82" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="P82" s="23">
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -3987,99 +4003,127 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D83" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G83" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K83" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M83" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N83" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O83" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P83" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C83" s="7">
+        <v>30</v>
+      </c>
+      <c r="D83" s="8">
+        <v>30</v>
+      </c>
+      <c r="E83" s="7">
+        <v>30</v>
+      </c>
+      <c r="F83" s="8">
+        <v>30</v>
+      </c>
+      <c r="G83" s="15">
+        <v>30</v>
+      </c>
+      <c r="H83" s="16">
+        <v>30</v>
+      </c>
+      <c r="I83" s="15">
+        <v>30</v>
+      </c>
+      <c r="J83" s="16">
+        <v>30</v>
+      </c>
+      <c r="K83" s="23">
+        <v>30</v>
+      </c>
+      <c r="L83" s="23">
+        <v>30</v>
+      </c>
+      <c r="M83" s="23">
+        <v>30</v>
+      </c>
+      <c r="N83" s="23">
+        <v>30</v>
+      </c>
+      <c r="O83" s="23">
+        <v>30</v>
+      </c>
+      <c r="P83" s="23">
+        <v>30</v>
+      </c>
+      <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
-      <c r="S83" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="S83" s="1"/>
       <c r="T83" s="1"/>
-      <c r="U83" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="U83" s="1"/>
       <c r="V83" s="1"/>
-      <c r="W83" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X83" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="23"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="C84" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N84" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P84" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
+      <c r="S84" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
+      <c r="U84" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="V84" s="1"/>
-      <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
+      <c r="W84" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X84" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -4101,16 +4145,12 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
-      <c r="W85" s="4">
-        <v>3</v>
-      </c>
-      <c r="X85" s="4">
-        <v>3</v>
-      </c>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -4133,15 +4173,15 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X86" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -4164,32 +4204,24 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
       <c r="W87" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X87" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
       <c r="E88" s="7"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H88" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I88" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J88" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="G88" s="15"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
       <c r="K88" s="23"/>
       <c r="L88" s="24"/>
       <c r="M88" s="23"/>
@@ -4202,36 +4234,32 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
+      <c r="W88" s="4">
+        <v>3</v>
+      </c>
+      <c r="X88" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D89" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="16" t="b">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="K89" s="23"/>
       <c r="L89" s="24"/>
@@ -4250,105 +4278,121 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D90" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D90" s="8" t="b">
+        <v>0</v>
       </c>
       <c r="E90" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F90" s="8" t="b">
+        <v>0</v>
       </c>
       <c r="G90" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H90" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="I90" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K90" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M90" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N90" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O90" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P90" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W90" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X90" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="23"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="23"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="4"/>
-      <c r="X91" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="C91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N91" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P91" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X91" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -4375,7 +4419,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
@@ -4402,7 +4446,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -4412,42 +4456,24 @@
       <c r="H94" s="16"/>
       <c r="I94" s="15"/>
       <c r="J94" s="16"/>
-      <c r="K94" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M94" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N94" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O94" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P94" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="K94" s="23"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="S94" s="1"/>
       <c r="T94" s="1"/>
-      <c r="U94" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
@@ -4457,24 +4483,42 @@
       <c r="H95" s="16"/>
       <c r="I95" s="15"/>
       <c r="J95" s="16"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="1"/>
+      <c r="K95" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O95" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P95" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
+      <c r="S95" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
+      <c r="U95" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="V95" s="1"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
@@ -4484,24 +4528,12 @@
       <c r="H96" s="16"/>
       <c r="I96" s="15"/>
       <c r="J96" s="16"/>
-      <c r="K96" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="L96" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M96" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="N96" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="O96" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="P96" s="24" t="s">
-        <v>117</v>
-      </c>
+      <c r="K96" s="23"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="23"/>
+      <c r="P96" s="24"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -4513,7 +4545,7 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8"/>
@@ -4523,23 +4555,23 @@
       <c r="H97" s="16"/>
       <c r="I97" s="15"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="L97" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="M97" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="N97" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="O97" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="P97" s="24">
-        <v>1.4</v>
+      <c r="K97" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L97" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M97" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="N97" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="O97" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="P97" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -4552,126 +4584,130 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
       <c r="E98" s="7"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H98" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I98" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="J98" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="K98" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="L98" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="M98" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N98" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="O98" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="P98" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="G98" s="15"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="L98" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="M98" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="N98" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="O98" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="P98" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
-      <c r="S98" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="S98" s="1"/>
       <c r="T98" s="1"/>
-      <c r="U98" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="U98" s="1"/>
       <c r="V98" s="1"/>
-      <c r="W98" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="X98" s="4" t="s">
-        <v>207</v>
-      </c>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
       <c r="E99" s="7"/>
       <c r="F99" s="8"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
+      <c r="G99" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="K99" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L99" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M99" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N99" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O99" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P99" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q99" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
+      <c r="S99" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
+      <c r="U99" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="V99" s="1"/>
-      <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
+      <c r="W99" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="X99" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
       <c r="E100" s="7"/>
       <c r="F100" s="8"/>
-      <c r="G100" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H100" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I100" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J100" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="23"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="23"/>
-      <c r="P100" s="24"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="L100" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="M100" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="N100" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="O100" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="P100" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -4683,50 +4719,30 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C101" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="D101" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="E101" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F101" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G101" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="H101" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="I101" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="J101" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="K101" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="L101" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="M101" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="N101" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="O101" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="P101" s="24">
-        <v>0.15</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K101" s="23"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="23"/>
+      <c r="P101" s="24"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -4738,114 +4754,104 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C102" s="7">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="D102" s="8">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="E102" s="7">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="F102" s="8">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="G102" s="15">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="H102" s="16">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="I102" s="15">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="J102" s="16">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="K102" s="23">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="L102" s="24">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="M102" s="23">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="N102" s="24">
-        <v>8</v>
+        <v>0.15</v>
       </c>
       <c r="O102" s="23">
-        <v>-8</v>
+        <v>0.15</v>
       </c>
       <c r="P102" s="24">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="1">
-        <v>0</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
-      <c r="S102" s="1">
-        <v>0</v>
-      </c>
+      <c r="S102" s="1"/>
       <c r="T102" s="1"/>
-      <c r="U102" s="1">
-        <v>0</v>
-      </c>
+      <c r="U102" s="1"/>
       <c r="V102" s="1"/>
-      <c r="W102" s="4">
-        <v>0</v>
-      </c>
-      <c r="X102" s="4">
-        <v>0</v>
-      </c>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C103" s="7">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D103" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E103" s="7">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="F103" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G103" s="15">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="H103" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I103" s="15">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="J103" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K103" s="23">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="L103" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M103" s="23">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="N103" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O103" s="23">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="P103" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q103" s="1">
         <v>0</v>
@@ -4868,349 +4874,359 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H104" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="I104" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="J104" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="K104" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="L104" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="M104" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="N104" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="O104" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="P104" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="C104" s="7">
+        <v>0</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0</v>
+      </c>
+      <c r="E104" s="7">
+        <v>0</v>
+      </c>
+      <c r="F104" s="8">
+        <v>0</v>
+      </c>
+      <c r="G104" s="15">
+        <v>0</v>
+      </c>
+      <c r="H104" s="16">
+        <v>0</v>
+      </c>
+      <c r="I104" s="15">
+        <v>0</v>
+      </c>
+      <c r="J104" s="16">
+        <v>0</v>
+      </c>
+      <c r="K104" s="23">
+        <v>0</v>
+      </c>
+      <c r="L104" s="24">
+        <v>0</v>
+      </c>
+      <c r="M104" s="23">
+        <v>0</v>
+      </c>
+      <c r="N104" s="24">
+        <v>0</v>
+      </c>
+      <c r="O104" s="23">
+        <v>0</v>
+      </c>
+      <c r="P104" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0</v>
       </c>
       <c r="R104" s="1"/>
-      <c r="S104" s="1" t="s">
-        <v>131</v>
+      <c r="S104" s="1">
+        <v>0</v>
       </c>
       <c r="T104" s="1"/>
-      <c r="U104" s="1" t="s">
-        <v>131</v>
+      <c r="U104" s="1">
+        <v>0</v>
       </c>
       <c r="V104" s="1"/>
-      <c r="W104" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="X104" s="4" t="s">
-        <v>132</v>
+      <c r="W104" s="4">
+        <v>0</v>
+      </c>
+      <c r="X104" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C105" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D105" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F105" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G105" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K105" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M105" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N105" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O105" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P105" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="1" t="b">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J105" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K105" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L105" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M105" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="N105" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="O105" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P105" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="R105" s="1"/>
-      <c r="S105" s="1" t="b">
-        <v>0</v>
+      <c r="S105" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="T105" s="1"/>
-      <c r="U105" s="1" t="b">
-        <v>0</v>
+      <c r="U105" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="V105" s="1"/>
-      <c r="W105" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X105" s="4" t="b">
-        <v>0</v>
+      <c r="W105" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="X105" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I106" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J106" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="K106" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="L106" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="M106" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="N106" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="O106" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="P106" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U106" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="W106" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="X106" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="C106" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N106" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O106" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P106" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V106" s="1"/>
+      <c r="W106" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X106" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C107" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="D107" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="E107" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="F107" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G107" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="H107" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="I107" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="J107" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="K107" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="L107" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="M107" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="N107" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="O107" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="P107" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="Q107" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="R107" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="S107" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="T107" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="U107" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="V107" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="W107" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="X107" s="4">
-        <v>1.4</v>
+        <v>134</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H107" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J107" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K107" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="L107" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="M107" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="N107" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O107" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="P107" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W107" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="X107" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="24"/>
-      <c r="O108" s="23"/>
-      <c r="P108" s="24"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="4"/>
-      <c r="X108" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="D108" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="E108" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="F108" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G108" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="H108" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="I108" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="J108" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="K108" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="L108" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="M108" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="N108" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="O108" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="P108" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="R108" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="S108" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="T108" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="U108" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="V108" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="W108" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="X108" s="4">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D109" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E109" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="F109" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="G109" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="H109" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="I109" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="J109" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="K109" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="L109" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="M109" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="N109" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="O109" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="P109" s="24">
-        <v>0.01</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="23"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="23"/>
+      <c r="P109" s="24"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -5222,49 +5238,49 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C110" s="7">
-        <v>4</v>
-      </c>
-      <c r="D110" s="8">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="D110" s="7">
+        <v>0.01</v>
       </c>
       <c r="E110" s="7">
-        <v>4</v>
-      </c>
-      <c r="F110" s="8">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0.01</v>
       </c>
       <c r="G110" s="15">
-        <v>4</v>
-      </c>
-      <c r="H110" s="16">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="H110" s="15">
+        <v>0.01</v>
       </c>
       <c r="I110" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="J110" s="16">
-        <v>1.5</v>
+        <v>0.01</v>
+      </c>
+      <c r="J110" s="15">
+        <v>0.01</v>
       </c>
       <c r="K110" s="23">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="L110" s="24">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="M110" s="23">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="N110" s="24">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="O110" s="23">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="P110" s="24">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
@@ -5272,192 +5288,188 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
-      <c r="W110" s="4">
-        <v>2</v>
-      </c>
-      <c r="X110" s="4">
-        <v>2</v>
-      </c>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="23"/>
-      <c r="N111" s="24"/>
-      <c r="O111" s="23"/>
-      <c r="P111" s="24"/>
+        <v>139</v>
+      </c>
+      <c r="C111" s="7">
+        <v>4</v>
+      </c>
+      <c r="D111" s="8">
+        <v>4</v>
+      </c>
+      <c r="E111" s="7">
+        <v>4</v>
+      </c>
+      <c r="F111" s="8">
+        <v>4</v>
+      </c>
+      <c r="G111" s="15">
+        <v>4</v>
+      </c>
+      <c r="H111" s="16">
+        <v>4</v>
+      </c>
+      <c r="I111" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="J111" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="K111" s="23">
+        <v>2</v>
+      </c>
+      <c r="L111" s="24">
+        <v>2</v>
+      </c>
+      <c r="M111" s="23">
+        <v>2</v>
+      </c>
+      <c r="N111" s="24">
+        <v>2</v>
+      </c>
+      <c r="O111" s="23">
+        <v>2</v>
+      </c>
+      <c r="P111" s="24">
+        <v>2</v>
+      </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
-      <c r="W111" s="4"/>
-      <c r="X111" s="4"/>
+      <c r="W111" s="4">
+        <v>2</v>
+      </c>
+      <c r="X111" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H112" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J112" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K112" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="L112" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="M112" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="N112" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="O112" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="P112" s="24" t="s">
-        <v>94</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="23"/>
+      <c r="N112" s="24"/>
+      <c r="O112" s="23"/>
+      <c r="P112" s="24"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
-      <c r="W112" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="X112" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" s="7">
-        <v>10</v>
-      </c>
-      <c r="D113" s="8">
-        <v>10</v>
-      </c>
-      <c r="E113" s="7">
-        <v>10</v>
-      </c>
-      <c r="F113" s="8">
-        <v>10</v>
-      </c>
-      <c r="G113" s="15">
-        <v>5</v>
-      </c>
-      <c r="H113" s="16">
-        <v>5</v>
-      </c>
-      <c r="I113" s="15">
-        <v>5</v>
-      </c>
-      <c r="J113" s="16">
-        <v>5</v>
-      </c>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="23"/>
-      <c r="N113" s="24"/>
-      <c r="O113" s="23"/>
-      <c r="P113" s="24"/>
+        <v>141</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K113" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L113" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="M113" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N113" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O113" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P113" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
-      <c r="W113" s="4">
-        <v>8</v>
-      </c>
-      <c r="X113" s="4">
-        <v>8</v>
+      <c r="W113" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="X113" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C114" s="7">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="D114" s="8">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="E114" s="7">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="F114" s="8">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="G114" s="15">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H114" s="16">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="I114" s="15">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="J114" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="K114" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="L114" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="M114" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="N114" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="O114" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="P114" s="24">
-        <v>0.7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K114" s="23"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="23"/>
+      <c r="N114" s="24"/>
+      <c r="O114" s="23"/>
+      <c r="P114" s="24"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -5465,57 +5477,57 @@
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
       <c r="W114" s="4">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="X114" s="4">
-        <v>0.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C115" s="7">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="D115" s="8">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="E115" s="7">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F115" s="8">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G115" s="15">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H115" s="16">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="I115" s="15">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="J115" s="16">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="K115" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="L115" s="23">
-        <v>1.2</v>
+        <v>0.7</v>
+      </c>
+      <c r="L115" s="24">
+        <v>0.7</v>
       </c>
       <c r="M115" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="N115" s="23">
-        <v>1.2</v>
+        <v>0.7</v>
+      </c>
+      <c r="N115" s="24">
+        <v>0.7</v>
       </c>
       <c r="O115" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="P115" s="23">
-        <v>1.2</v>
+        <v>0.7</v>
+      </c>
+      <c r="P115" s="24">
+        <v>0.7</v>
       </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -5524,74 +5536,133 @@
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
       <c r="W115" s="4">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="X115" s="4">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C116" s="11">
-        <v>40</v>
-      </c>
-      <c r="D116" s="12">
-        <v>40</v>
-      </c>
-      <c r="E116" s="11">
-        <v>40</v>
-      </c>
-      <c r="F116" s="12">
-        <v>40</v>
-      </c>
-      <c r="G116" s="19">
-        <v>40</v>
-      </c>
-      <c r="H116" s="20">
-        <v>40</v>
-      </c>
-      <c r="I116" s="19">
-        <v>40</v>
-      </c>
-      <c r="J116" s="20">
-        <v>40</v>
-      </c>
-      <c r="K116" s="27">
-        <v>40</v>
-      </c>
-      <c r="L116" s="28">
-        <v>40</v>
-      </c>
-      <c r="M116" s="27">
-        <v>40</v>
-      </c>
-      <c r="N116" s="28">
-        <v>40</v>
-      </c>
-      <c r="O116" s="27">
-        <v>40</v>
-      </c>
-      <c r="P116" s="28">
-        <v>40</v>
-      </c>
-      <c r="Q116" s="1">
-        <v>40</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C116" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D116" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E116" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="F116" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G116" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="H116" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="I116" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="J116" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="K116" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="L116" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="M116" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="N116" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="O116" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="P116" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
-      <c r="S116" s="1">
-        <v>40</v>
-      </c>
+      <c r="S116" s="1"/>
       <c r="T116" s="1"/>
-      <c r="U116" s="1">
-        <v>40</v>
-      </c>
+      <c r="U116" s="1"/>
       <c r="V116" s="1"/>
       <c r="W116" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="X116" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C117" s="11">
         <v>40</v>
       </c>
-      <c r="X116" s="4">
+      <c r="D117" s="12">
+        <v>40</v>
+      </c>
+      <c r="E117" s="11">
+        <v>40</v>
+      </c>
+      <c r="F117" s="12">
+        <v>40</v>
+      </c>
+      <c r="G117" s="19">
+        <v>40</v>
+      </c>
+      <c r="H117" s="20">
+        <v>40</v>
+      </c>
+      <c r="I117" s="19">
+        <v>40</v>
+      </c>
+      <c r="J117" s="20">
+        <v>40</v>
+      </c>
+      <c r="K117" s="27">
+        <v>40</v>
+      </c>
+      <c r="L117" s="28">
+        <v>40</v>
+      </c>
+      <c r="M117" s="27">
+        <v>40</v>
+      </c>
+      <c r="N117" s="28">
+        <v>40</v>
+      </c>
+      <c r="O117" s="27">
+        <v>40</v>
+      </c>
+      <c r="P117" s="28">
+        <v>40</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>40</v>
+      </c>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1">
+        <v>40</v>
+      </c>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1">
+        <v>40</v>
+      </c>
+      <c r="V117" s="1"/>
+      <c r="W117" s="4">
+        <v>40</v>
+      </c>
+      <c r="X117" s="4">
         <v>40</v>
       </c>
     </row>

--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenhu/Documents/GitHub/crowding-individual-difference/easyEyesSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C753CBE-E932-D045-ABE3-C07C0952060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60595B65-8201-3C4C-81B4-E288CD2E6E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="212">
   <si>
     <t>_about</t>
   </si>
@@ -59,9 +59,6 @@
     <t>_language</t>
   </si>
   <si>
-    <t>English (US)</t>
-  </si>
-  <si>
     <t>_languageSelectionByParticipantBool</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
   </si>
   <si>
     <t>identify</t>
-  </si>
-  <si>
-    <t>questionAndAnswer</t>
   </si>
   <si>
     <t>thresholdBeta</t>
@@ -681,6 +675,9 @@
   </si>
   <si>
     <t>blindspot</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1207,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F42C05-3A7A-B849-89F1-BA0E282F9675}">
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="169" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="150" zoomScaleNormal="169" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="A29" sqref="A29:XFD29"/>
+      <selection pane="topRight" activeCell="V107" sqref="V107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1227,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1235,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1259,12 +1256,12 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -1272,7 +1269,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>0</v>
@@ -1280,23 +1277,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>6</v>
@@ -1304,31 +1301,31 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>60</v>
@@ -1336,7 +1333,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
@@ -1344,15 +1341,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>0</v>
@@ -1368,7 +1365,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
@@ -1376,39 +1373,39 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -1416,7 +1413,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
@@ -1424,7 +1421,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -1495,78 +1492,78 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="L27" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W27" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="X27" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="N27" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="P27" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="7" t="b">
         <v>1</v>
@@ -1631,72 +1628,72 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="7" t="b">
         <v>1</v>
@@ -1755,7 +1752,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -1782,72 +1779,72 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="H32" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="I32" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="J32" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="K32" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="L32" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="I32" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="L32" s="26" t="s">
-        <v>162</v>
-      </c>
       <c r="M32" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="O32" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="N32" s="26" t="s">
+      <c r="P32" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="Q32" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="P32" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -1906,7 +1903,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7">
         <v>10</v>
@@ -1965,137 +1962,137 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="D35" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="H36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="I36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="J36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="K36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="O36" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P36" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
@@ -2128,88 +2125,88 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="D38" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T38" s="1"/>
       <c r="U38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="G39" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39" s="23"/>
       <c r="L39" s="24"/>
@@ -2228,7 +2225,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
@@ -2259,14 +2256,14 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="15"/>
@@ -2274,15 +2271,15 @@
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
       <c r="K41" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L41" s="24"/>
       <c r="M41" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N41" s="24"/>
       <c r="O41" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P41" s="24"/>
       <c r="Q41" s="1"/>
@@ -2296,41 +2293,41 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
       <c r="K42" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2343,41 +2340,41 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="16"/>
       <c r="I43" s="15"/>
       <c r="J43" s="16"/>
       <c r="K43" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -2390,49 +2387,49 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="H44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="I44" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="J44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="K44" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M44" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -2445,7 +2442,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="7">
         <v>-0.25</v>
@@ -2500,7 +2497,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
@@ -2539,7 +2536,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="7">
         <v>2</v>
@@ -2582,23 +2579,23 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
       <c r="G48" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48" s="23"/>
       <c r="L48" s="24"/>
@@ -2617,7 +2614,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
@@ -2644,7 +2641,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="7" t="b">
         <v>1</v>
@@ -2699,7 +2696,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="7">
         <v>0.15</v>
@@ -2754,49 +2751,49 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="D52" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N52" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O52" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P52" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2809,7 +2806,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="7">
         <v>0.5</v>
@@ -2864,7 +2861,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="7">
         <v>0.4</v>
@@ -2919,7 +2916,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -2974,7 +2971,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
@@ -3001,7 +2998,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="7">
         <v>0.05</v>
@@ -3056,7 +3053,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="7">
         <v>0.3</v>
@@ -3111,7 +3108,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -3129,22 +3126,22 @@
       <c r="P59" s="24"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
@@ -3162,22 +3159,22 @@
       <c r="P60" s="24"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S60" s="1"/>
       <c r="T60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
@@ -3195,22 +3192,22 @@
       <c r="P61" s="24"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
@@ -3228,22 +3225,22 @@
       <c r="P62" s="24"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S62" s="1"/>
       <c r="T62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
@@ -3261,22 +3258,22 @@
       <c r="P63" s="24"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S63" s="1"/>
       <c r="T63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U63" s="1"/>
       <c r="V63" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -3293,27 +3290,27 @@
       <c r="O64" s="23"/>
       <c r="P64" s="24"/>
       <c r="Q64" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R64" s="1"/>
       <c r="S64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V64" s="1"/>
       <c r="W64" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X64" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
@@ -3338,7 +3335,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -3367,7 +3364,7 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
@@ -3384,15 +3381,15 @@
       <c r="O67" s="23"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R67" s="1"/>
       <c r="S67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T67" s="1"/>
       <c r="U67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V67" s="1"/>
       <c r="W67" s="4"/>
@@ -3400,7 +3397,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
@@ -3433,7 +3430,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="8"/>
@@ -3450,15 +3447,15 @@
       <c r="O69" s="23"/>
       <c r="P69" s="24"/>
       <c r="Q69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V69" s="1"/>
       <c r="W69" s="4"/>
@@ -3466,7 +3463,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="8"/>
@@ -3483,27 +3480,27 @@
       <c r="O70" s="23"/>
       <c r="P70" s="24"/>
       <c r="Q70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R70" s="1"/>
       <c r="S70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T70" s="1"/>
       <c r="U70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V70" s="1"/>
       <c r="W70" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X70" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
@@ -3536,7 +3533,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
@@ -3569,7 +3566,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
@@ -3602,7 +3599,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
@@ -3635,7 +3632,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="8"/>
@@ -3668,7 +3665,7 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
@@ -3685,27 +3682,27 @@
       <c r="O76" s="23"/>
       <c r="P76" s="24"/>
       <c r="Q76" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R76" s="1"/>
       <c r="S76" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T76" s="1"/>
       <c r="U76" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V76" s="1"/>
       <c r="W76" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X76" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
@@ -3742,7 +3739,7 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
@@ -3769,7 +3766,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="7" t="b">
         <v>1</v>
@@ -3834,7 +3831,7 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="7" t="b">
         <v>1</v>
@@ -3893,7 +3890,7 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="7">
         <v>1.25</v>
@@ -3948,7 +3945,7 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C82" s="7">
         <v>0.75</v>
@@ -4003,7 +4000,7 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="7">
         <v>30</v>
@@ -4058,7 +4055,7 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="7" t="b">
         <v>1</v>
@@ -4123,7 +4120,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -4150,7 +4147,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -4181,7 +4178,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -4212,7 +4209,7 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -4243,23 +4240,23 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
       <c r="E89" s="7"/>
       <c r="F89" s="8"/>
       <c r="G89" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J89" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K89" s="23"/>
       <c r="L89" s="24"/>
@@ -4278,7 +4275,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="7" t="b">
         <v>0</v>
@@ -4321,7 +4318,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="7" t="b">
         <v>1</v>
@@ -4392,7 +4389,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -4419,7 +4416,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
@@ -4446,7 +4443,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -4473,7 +4470,7 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
@@ -4518,7 +4515,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
@@ -4545,7 +4542,7 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8"/>
@@ -4556,22 +4553,22 @@
       <c r="I97" s="15"/>
       <c r="J97" s="16"/>
       <c r="K97" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L97" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M97" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N97" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O97" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P97" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -4584,7 +4581,7 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
@@ -4623,64 +4620,64 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
       <c r="E99" s="7"/>
       <c r="F99" s="8"/>
       <c r="G99" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K99" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="H99" s="16" t="s">
+      <c r="L99" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="I99" s="15" t="s">
+      <c r="M99" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J99" s="16" t="s">
+      <c r="N99" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="K99" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="L99" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="M99" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N99" s="24" t="s">
-        <v>121</v>
-      </c>
       <c r="O99" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P99" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R99" s="1"/>
       <c r="S99" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T99" s="1"/>
       <c r="U99" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="V99" s="1"/>
       <c r="W99" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X99" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
@@ -4691,22 +4688,22 @@
       <c r="I100" s="15"/>
       <c r="J100" s="16"/>
       <c r="K100" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L100" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N100" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O100" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P100" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -4719,23 +4716,23 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="8"/>
       <c r="E101" s="7"/>
       <c r="F101" s="8"/>
       <c r="G101" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I101" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K101" s="23"/>
       <c r="L101" s="24"/>
@@ -4754,7 +4751,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C102" s="7">
         <v>0.15</v>
@@ -4809,7 +4806,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C103" s="7">
         <v>-8</v>
@@ -4874,7 +4871,7 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C104" s="7">
         <v>0</v>
@@ -4939,72 +4936,72 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="D105" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G105" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="H105" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="I105" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="J105" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G105" s="15" t="s">
+      <c r="K105" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="L105" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="M105" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="N105" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="O105" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P105" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q105" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="H105" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="I105" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="J105" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="K105" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="L105" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="M105" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="N105" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="O105" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="P105" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="R105" s="1"/>
       <c r="S105" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T105" s="1"/>
       <c r="U105" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V105" s="1"/>
       <c r="W105" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X105" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C106" s="7" t="b">
         <v>0</v>
@@ -5069,78 +5066,72 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="D107" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I107" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J107" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K107" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L107" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M107" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N107" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O107" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P107" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R107" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="R107" s="1"/>
       <c r="S107" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T107" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="T107" s="1"/>
       <c r="U107" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V107" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="V107" s="1"/>
       <c r="W107" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X107" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C108" s="7">
         <v>1.4</v>
@@ -5211,7 +5202,7 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="8"/>
@@ -5238,7 +5229,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C110" s="7">
         <v>0.01</v>
@@ -5293,7 +5284,7 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C111" s="7">
         <v>4</v>
@@ -5352,7 +5343,7 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="8"/>
@@ -5379,49 +5370,49 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G113" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>143</v>
-      </c>
       <c r="H113" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K113" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L113" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M113" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N113" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O113" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P113" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -5430,15 +5421,15 @@
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
       <c r="W113" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X113" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C114" s="7">
         <v>10</v>
@@ -5485,7 +5476,7 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C115" s="7">
         <v>0.7</v>
@@ -5544,7 +5535,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C116" s="7">
         <v>1.2</v>
@@ -5603,7 +5594,7 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C117" s="11">
         <v>40</v>

--- a/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
+++ b/easyEyesSpreadsheets/CrowdingReadingAcuity_secondSess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenhu/Documents/GitHub/crowding-individual-difference/easyEyesSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60595B65-8201-3C4C-81B4-E288CD2E6E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8E77A3-52ED-9945-AD7F-CA2978B5AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="760" windowWidth="29200" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
+    <workbookView xWindow="400" yWindow="7780" windowWidth="29200" windowHeight="18880" xr2:uid="{F1A85D42-BFAE-944F-85F3-75B22481207D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="211">
   <si>
     <t>_about</t>
   </si>
@@ -494,14 +494,6 @@
     <t>Keep the cursor at the center of the black cross until the triplet appears.</t>
   </si>
   <si>
-    <t>In this block, you will again need to keep your cursor at the center of a moving black cross until a letter appears. The letter will appear away from the cross. You must recognize it by typing it on the keyboard. In some trials, the letter might be very small. Try anyway.
-Click on PROCEED to continue.</t>
-  </si>
-  <si>
-    <t>In this block, you will need to keep the cursor at the center of a moving black cross until three letters appear, for example: Z R N. The letters will appear away from the cross. You must recognize the middle one by typing it on the keyboard. In some trials, the letters might be very small. Try anyway.
-Click on PROCEED to continue.</t>
-  </si>
-  <si>
     <t>Anna Bruns, Helen Hu, Jonathan Winawer, Denis Pelli</t>
   </si>
   <si>
@@ -647,37 +639,41 @@
   </si>
   <si>
     <t>thresholdAllowedTrialRatio</t>
+  </si>
+  <si>
+    <t>_saveCursorPositionBool</t>
+  </si>
+  <si>
+    <t>typographic</t>
+  </si>
+  <si>
+    <t>Letters and Reading -- Session 2</t>
+  </si>
+  <si>
+    <t>This experiment session is a continuation of the previous session of the experiment "Letter and Reading". It requires a computer with at least 6 cores.
+In this session, you will perform tasks identical to what you did for the first one. You will respond to letters and read some texts.</t>
+  </si>
+  <si>
+    <t>arial.woff2</t>
+  </si>
+  <si>
+    <t>calibrateTrackDistance</t>
+  </si>
+  <si>
+    <t>blindspot</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
   <si>
     <t>In this session, you will perform tasks on the computer.
 In each task, when you answer correctly, you will hear a beep. Click on the "BEEP" button to make sure the computer's audio is on.
-In this block, you must your cursor at the center of a moving black cross until a letter appears. The letter will appear away from the cross. You must recognize it by typing it on the keyboard. In some trials, the letter might be very small. Try anyway.
+In this block, you must keep your cursor at the center of a black cross until a letter appears. While your cursor is at the center of the cross, please keep your eyes on the cross as well. The letter will appear away from the cross, in the corner of your eye. It will flash quickly. After the letter disappear, you will report the letter you see. The size of the letter can vary greatly from trial to trial. In some trials, the letter might be very small. Please try your best to keep your eyes on the cross at the center and view the letter with your side vision.
 Click on PROCEED to continue.</t>
   </si>
   <si>
-    <t>_saveCursorPositionBool</t>
-  </si>
-  <si>
-    <t>typographic</t>
-  </si>
-  <si>
-    <t>Letters and Reading -- Session 2</t>
-  </si>
-  <si>
-    <t>This experiment session is a continuation of the previous session of the experiment "Letter and Reading". It requires a computer with at least 6 cores.
-In this session, you will perform tasks identical to what you did for the first one. You will respond to letters and read some texts.</t>
-  </si>
-  <si>
-    <t>arial.woff2</t>
-  </si>
-  <si>
-    <t>calibrateTrackDistance</t>
-  </si>
-  <si>
-    <t>blindspot</t>
-  </si>
-  <si>
-    <t>English</t>
+    <t>In this block, you will use your cursor to track the center of a moving black cross until three letters appear, for example: Z R N. The letters will appear away from the cross, in the corner of your eye. They will flash quickly. After the letters disappear, you will report the MIDDLE letter you see (In the example above, the correct answer is "R"). The size of the letters and the spacing between the letters can vary greatly from trial to trial. In some trials, the letters might be very small. Please try your best to keep your eyes on the cross at the center and view the letters with your side vision.
+Click on PROCEED to continue.</t>
   </si>
 </sst>
 </file>
@@ -833,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -869,6 +865,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1207,10 +1209,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F42C05-3A7A-B849-89F1-BA0E282F9675}">
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="150" zoomScaleNormal="169" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="125" zoomScaleNormal="169" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="V107" sqref="V107"/>
+      <selection pane="topRight" activeCell="K41" sqref="K41:P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1232,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1256,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1312,7 +1314,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
@@ -1320,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1376,7 +1378,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -1405,7 +1407,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -1492,19 +1494,19 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>129</v>
@@ -1519,22 +1521,22 @@
         <v>129</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O27" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>130</v>
@@ -1555,10 +1557,10 @@
         <v>130</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
@@ -1628,67 +1630,67 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
@@ -1782,64 +1784,64 @@
         <v>36</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="H32" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="I32" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="J32" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="K32" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="L32" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="I32" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="L32" s="26" t="s">
-        <v>160</v>
-      </c>
       <c r="M32" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="O32" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="N32" s="26" t="s">
+      <c r="P32" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="Q32" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="P32" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="3" t="s">
         <v>37</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -1977,16 +1979,16 @@
         <v>41</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K35" s="23" t="s">
         <v>41</v>
@@ -2007,22 +2009,22 @@
         <v>41</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -2140,16 +2142,16 @@
         <v>48</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K38" s="23" t="s">
         <v>48</v>
@@ -2254,32 +2256,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>203</v>
+      <c r="C41" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="7" t="s">
-        <v>152</v>
+      <c r="E41" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="23" t="s">
-        <v>153</v>
+      <c r="K41" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="L41" s="24"/>
-      <c r="M41" s="23" t="s">
-        <v>153</v>
+      <c r="M41" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="N41" s="24"/>
-      <c r="O41" s="23" t="s">
-        <v>153</v>
+      <c r="O41" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="P41" s="24"/>
       <c r="Q41" s="1"/>
@@ -3126,15 +3128,15 @@
       <c r="P59" s="24"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
@@ -3159,15 +3161,15 @@
       <c r="P60" s="24"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S60" s="1"/>
       <c r="T60" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
@@ -3192,15 +3194,15 @@
       <c r="P61" s="24"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -3225,15 +3227,15 @@
       <c r="P62" s="24"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S62" s="1"/>
       <c r="T62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
@@ -3258,15 +3260,15 @@
       <c r="P63" s="24"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S63" s="1"/>
       <c r="T63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U63" s="1"/>
       <c r="V63" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
@@ -3290,15 +3292,15 @@
       <c r="O64" s="23"/>
       <c r="P64" s="24"/>
       <c r="Q64" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R64" s="1"/>
       <c r="S64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V64" s="1"/>
       <c r="W64" s="4" t="s">
@@ -3381,15 +3383,15 @@
       <c r="O67" s="23"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R67" s="1"/>
       <c r="S67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T67" s="1"/>
       <c r="U67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="V67" s="1"/>
       <c r="W67" s="4"/>
@@ -4657,22 +4659,22 @@
         <v>120</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R99" s="1"/>
       <c r="S99" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="T99" s="1"/>
       <c r="U99" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="V99" s="1"/>
       <c r="W99" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="X99" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
@@ -5131,7 +5133,7 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C108" s="7">
         <v>1.4</v>
